--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_24_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_24_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1744113.74087748</v>
+        <v>1779241.004299507</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11733401.9067142</v>
+        <v>11862339.47326615</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8314645.404191375</v>
+        <v>9006054.513033738</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6175208.652876295</v>
+        <v>5979323.310798444</v>
       </c>
     </row>
     <row r="11">
@@ -8692,28 +8692,28 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>127.0851924326491</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>16.0270255025508</v>
       </c>
       <c r="M11" t="n">
-        <v>119.6393297918153</v>
+        <v>101.9631921489827</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>98.95265069331703</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>106.9081429388908</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>0.8719195936146775</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.151649117660526</v>
+        <v>143.3500236482384</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>44.43641316899827</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,34 +8765,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.96668336353984</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>83.36892054015348</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>65.30935641878165</v>
+        <v>53.61461043270162</v>
       </c>
       <c r="M12" t="n">
-        <v>56.66054640418547</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>25.52969179874651</v>
+        <v>29.59757750060459</v>
       </c>
       <c r="O12" t="n">
-        <v>62.33520450364681</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>69.55784692356674</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>96.92100931678129</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>96.15565039559468</v>
+        <v>90.90940486238216</v>
       </c>
       <c r="L13" t="n">
-        <v>92.83825080773434</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>94.59372362966276</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>84.40760145462464</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>98.48235334348769</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>103.5231829350779</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8929,28 +8929,28 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>139.8903350219551</v>
+        <v>127.0851924326491</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>120.3859119269127</v>
       </c>
       <c r="M14" t="n">
-        <v>119.6393297918153</v>
+        <v>40.60003093275938</v>
       </c>
       <c r="N14" t="n">
-        <v>116.9148067230436</v>
+        <v>98.95265069331703</v>
       </c>
       <c r="O14" t="n">
-        <v>63.97526987596412</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>0.8719195936146775</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.151649117660526</v>
+        <v>143.3500236482384</v>
       </c>
       <c r="R14" t="n">
-        <v>30.91188885043194</v>
+        <v>44.43641316899827</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,22 +9005,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.96668336353984</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>83.36892054015348</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>53.61461043270162</v>
       </c>
       <c r="M15" t="n">
-        <v>56.66054640418547</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>43.6059956852033</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>62.33520450364681</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9090,19 +9090,19 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>92.83825080773434</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>87.51539720327906</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>77.49758180982286</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>92.09983178242442</v>
       </c>
       <c r="P16" t="n">
-        <v>103.5231829350779</v>
+        <v>98.06183312491675</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>127.5346387577191</v>
+        <v>118.9907045510695</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9172,22 +9172,22 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>41.66462889581811</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>98.95265069331703</v>
       </c>
       <c r="O17" t="n">
-        <v>123.8692975309836</v>
+        <v>106.9081429388908</v>
       </c>
       <c r="P17" t="n">
-        <v>140.5690754423378</v>
+        <v>126.0931224081668</v>
       </c>
       <c r="Q17" t="n">
-        <v>50.15932759310051</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>9.447917593948475</v>
+        <v>22.21255041891162</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9254,7 +9254,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>43.6059956852033</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9406,25 +9406,25 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>120.3859119269127</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>101.9631921489827</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>98.95265069331703</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>106.9081429388908</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>64.39935177915933</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>22.21255041891162</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,28 +9476,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.96668336353984</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>83.36892054015348</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>65.30935641878165</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>3.679084296149583</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>62.33520450364681</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>69.55784692356674</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>96.15565039559468</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>92.83825080773434</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>94.59372362966276</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>84.40760145462464</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>98.48235334348769</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>103.5231829350779</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>127.5346387577191</v>
+        <v>118.9907045510695</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9655,13 +9655,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>140.5690754423378</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>113.5925187771757</v>
+        <v>143.3500236482384</v>
       </c>
       <c r="R23" t="n">
-        <v>9.447917593948475</v>
+        <v>22.21255041891162</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>89.87797468186831</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>89.91818389675049</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -9798,22 +9798,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>90.90940486238216</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>94.59372362966276</v>
+        <v>87.51539720327906</v>
       </c>
       <c r="N25" t="n">
-        <v>84.40760145462464</v>
+        <v>77.49758180982286</v>
       </c>
       <c r="O25" t="n">
-        <v>98.48235334348769</v>
+        <v>92.09983178242442</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>98.06183312491675</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -9874,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>127.5346387577191</v>
+        <v>118.9907045510695</v>
       </c>
       <c r="K26" t="n">
-        <v>29.62565365112172</v>
+        <v>23.14399632208122</v>
       </c>
       <c r="L26" t="n">
-        <v>136.2718236171098</v>
+        <v>120.3859119269127</v>
       </c>
       <c r="M26" t="n">
-        <v>9.374648420981941</v>
+        <v>101.9631921489827</v>
       </c>
       <c r="N26" t="n">
-        <v>116.9148067230436</v>
+        <v>98.95265069331703</v>
       </c>
       <c r="O26" t="n">
-        <v>109.0106064555287</v>
+        <v>106.9081429388908</v>
       </c>
       <c r="P26" t="n">
-        <v>140.5690754423378</v>
+        <v>126.0931224081668</v>
       </c>
       <c r="Q26" t="n">
-        <v>154.2208615110444</v>
+        <v>39.40882753767045</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>26.73270676214679</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9968,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>49.52023863137366</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>59.27270702371922</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>14.47034121347951</v>
+        <v>17.44970316945351</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10035,25 +10035,25 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>96.15565039559468</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>94.59372362966276</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>84.40760145462464</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>98.48235334348769</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>17.55867509312117</v>
+        <v>20.10100482862758</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>17.26995738688575</v>
+        <v>118.9907045510695</v>
       </c>
       <c r="K29" t="n">
-        <v>139.8903350219551</v>
+        <v>23.14399632208122</v>
       </c>
       <c r="L29" t="n">
-        <v>48.81333328117979</v>
+        <v>120.3859119269127</v>
       </c>
       <c r="M29" t="n">
-        <v>9.374648420981941</v>
+        <v>101.9631921489827</v>
       </c>
       <c r="N29" t="n">
-        <v>6.650125352210267</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>123.8692975309836</v>
+        <v>106.6883909465122</v>
       </c>
       <c r="P29" t="n">
-        <v>140.5690754423378</v>
+        <v>126.0931224081668</v>
       </c>
       <c r="Q29" t="n">
-        <v>43.95618014021103</v>
+        <v>39.40882753767045</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10190,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>94.96668336353984</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>83.36892054015348</v>
+        <v>74.67150688558309</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>56.66054640418547</v>
+        <v>43.01332944396242</v>
       </c>
       <c r="N30" t="n">
-        <v>43.6059956852033</v>
+        <v>29.59757750060459</v>
       </c>
       <c r="O30" t="n">
-        <v>62.33520450364681</v>
+        <v>49.52023863137366</v>
       </c>
       <c r="P30" t="n">
-        <v>69.55784692356674</v>
+        <v>59.27270702371922</v>
       </c>
       <c r="Q30" t="n">
-        <v>96.92100931678129</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>14.47034121347951</v>
+        <v>17.44970316945351</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>96.15565039559468</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>92.83825080773434</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>94.59372362966276</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>84.40760145462464</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>98.06183312491675</v>
       </c>
       <c r="Q31" t="n">
-        <v>65.34295837775146</v>
+        <v>20.10100482862758</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10363,16 +10363,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>123.8692975309836</v>
+        <v>106.9081429388908</v>
       </c>
       <c r="P32" t="n">
-        <v>140.5690754423378</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>8.272933845861232</v>
+        <v>12.01253552814943</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,10 +10427,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>89.87797468186831</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>74.67150688558309</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10439,13 +10439,13 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>26.7858363373804</v>
+        <v>29.59757750060459</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>51.19739382650063</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10509,25 +10509,25 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>96.15565039559468</v>
+        <v>90.90940486238216</v>
       </c>
       <c r="L34" t="n">
-        <v>92.83825080773434</v>
+        <v>86.12486274434171</v>
       </c>
       <c r="M34" t="n">
-        <v>94.59372362966276</v>
+        <v>87.51539720327906</v>
       </c>
       <c r="N34" t="n">
-        <v>84.40760145462464</v>
+        <v>77.49758180982286</v>
       </c>
       <c r="O34" t="n">
-        <v>98.48235334348769</v>
+        <v>92.09983178242442</v>
       </c>
       <c r="P34" t="n">
-        <v>103.5231829350779</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>127.5346387577191</v>
+        <v>118.9907045510695</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10594,13 +10594,13 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>84.51691189731336</v>
+        <v>101.9631921489827</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>123.8692975309836</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>8.272933845861232</v>
+        <v>12.01253552814943</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,19 +10667,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>74.67150688558309</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>43.01332944396242</v>
       </c>
       <c r="N36" t="n">
-        <v>43.6059956852033</v>
+        <v>29.59757750060459</v>
       </c>
       <c r="O36" t="n">
-        <v>62.33520450364681</v>
+        <v>9.511788891686521</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -10752,16 +10752,16 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>94.59372362966276</v>
+        <v>87.51539720327906</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>98.48235334348769</v>
+        <v>92.09983178242442</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>98.06183312491675</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -10828,25 +10828,25 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>136.2718236171098</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>116.9148067230436</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>80.03694958748611</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>8.272933845861232</v>
+        <v>12.01253552814943</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,22 +10904,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>74.67150688558309</v>
       </c>
       <c r="L39" t="n">
-        <v>65.30935641878165</v>
+        <v>53.61461043270162</v>
       </c>
       <c r="M39" t="n">
-        <v>56.66054640418547</v>
+        <v>43.01332944396242</v>
       </c>
       <c r="N39" t="n">
-        <v>43.6059956852033</v>
+        <v>29.59757750060459</v>
       </c>
       <c r="O39" t="n">
-        <v>62.33520450364681</v>
+        <v>49.52023863137366</v>
       </c>
       <c r="P39" t="n">
-        <v>69.55784692356674</v>
+        <v>59.27270702371922</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -10980,25 +10980,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>86.12486274434171</v>
       </c>
       <c r="M40" t="n">
-        <v>44.70460682175845</v>
+        <v>87.51539720327906</v>
       </c>
       <c r="N40" t="n">
-        <v>84.40760145462464</v>
+        <v>77.49758180982286</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>92.09983178242442</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>98.06183312491675</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>48.62718147411442</v>
+        <v>43.06295745614981</v>
       </c>
       <c r="K41" t="n">
-        <v>60.98287773835041</v>
+        <v>127.0851924326491</v>
       </c>
       <c r="L41" t="n">
-        <v>136.2718236171098</v>
+        <v>120.3859119269127</v>
       </c>
       <c r="M41" t="n">
-        <v>119.6393297918153</v>
+        <v>101.9631921489827</v>
       </c>
       <c r="N41" t="n">
-        <v>116.9148067230436</v>
+        <v>98.95265069331703</v>
       </c>
       <c r="O41" t="n">
-        <v>123.8692975309836</v>
+        <v>106.9081429388908</v>
       </c>
       <c r="P41" t="n">
-        <v>140.5690754423378</v>
+        <v>50.1653753132471</v>
       </c>
       <c r="Q41" t="n">
-        <v>75.31340422743969</v>
+        <v>95.08348350499728</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11138,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>94.96668336353984</v>
+        <v>13.95022758694863</v>
       </c>
       <c r="K42" t="n">
-        <v>83.36892054015348</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>53.61461043270162</v>
       </c>
       <c r="M42" t="n">
-        <v>56.66054640418547</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>43.6059956852033</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>69.55784692356674</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>21.70519101184902</v>
+        <v>90.04566567111172</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>45.46315218510174</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>28.09315854814557</v>
+        <v>27.88037644326299</v>
       </c>
       <c r="K43" t="n">
-        <v>96.15565039559468</v>
+        <v>90.90940486238216</v>
       </c>
       <c r="L43" t="n">
-        <v>92.83825080773434</v>
+        <v>86.12486274434171</v>
       </c>
       <c r="M43" t="n">
-        <v>15.68626634605806</v>
+        <v>87.51539720327906</v>
       </c>
       <c r="N43" t="n">
-        <v>5.50014417101994</v>
+        <v>77.49758180982286</v>
       </c>
       <c r="O43" t="n">
-        <v>98.48235334348769</v>
+        <v>92.09983178242442</v>
       </c>
       <c r="P43" t="n">
-        <v>24.6157256514732</v>
+        <v>22.13408602999706</v>
       </c>
       <c r="Q43" t="n">
-        <v>48.91589918034984</v>
+        <v>48.11445384427581</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>127.5346387577191</v>
+        <v>118.9907045510695</v>
       </c>
       <c r="K44" t="n">
-        <v>139.8903350219551</v>
+        <v>127.0851924326491</v>
       </c>
       <c r="L44" t="n">
-        <v>136.2718236171098</v>
+        <v>120.3859119269127</v>
       </c>
       <c r="M44" t="n">
-        <v>119.6393297918153</v>
+        <v>101.9631921489827</v>
       </c>
       <c r="N44" t="n">
-        <v>116.9148067230436</v>
+        <v>23.02490359839734</v>
       </c>
       <c r="O44" t="n">
-        <v>44.96184024737887</v>
+        <v>106.9081429388908</v>
       </c>
       <c r="P44" t="n">
-        <v>140.5690754423378</v>
+        <v>126.0931224081668</v>
       </c>
       <c r="Q44" t="n">
-        <v>75.31340422743969</v>
+        <v>67.42227655331868</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11372,34 +11372,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>9.000470976478594</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>16.05922607993515</v>
+        <v>13.95022758694863</v>
       </c>
       <c r="K45" t="n">
-        <v>83.36892054015348</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>65.30935641878165</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>29.59757750060459</v>
       </c>
       <c r="O45" t="n">
-        <v>62.33520450364681</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>32.85295372820698</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>96.92100931678129</v>
+        <v>14.11791857619203</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>45.46315218510174</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>28.09315854814557</v>
+        <v>27.88037644326299</v>
       </c>
       <c r="K46" t="n">
-        <v>17.24819311198998</v>
+        <v>90.90940486238216</v>
       </c>
       <c r="L46" t="n">
-        <v>13.93079352412964</v>
+        <v>26.68220222206681</v>
       </c>
       <c r="M46" t="n">
-        <v>15.68626634605806</v>
+        <v>87.51539720327906</v>
       </c>
       <c r="N46" t="n">
-        <v>5.50014417101994</v>
+        <v>77.49758180982286</v>
       </c>
       <c r="O46" t="n">
-        <v>19.57489605988298</v>
+        <v>92.09983178242442</v>
       </c>
       <c r="P46" t="n">
-        <v>24.6157256514732</v>
+        <v>98.06183312491675</v>
       </c>
       <c r="Q46" t="n">
-        <v>48.91589918034984</v>
+        <v>48.11445384427581</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>237.6646292700967</v>
+        <v>257.5126388489285</v>
       </c>
       <c r="C11" t="n">
-        <v>220.2036793776237</v>
+        <v>240.0516889564555</v>
       </c>
       <c r="D11" t="n">
-        <v>209.6138292272991</v>
+        <v>229.4618388061309</v>
       </c>
       <c r="E11" t="n">
-        <v>236.8611576788779</v>
+        <v>256.7091672577097</v>
       </c>
       <c r="F11" t="n">
-        <v>261.8068333483276</v>
+        <v>281.6548429271593</v>
       </c>
       <c r="G11" t="n">
-        <v>269.6030443692339</v>
+        <v>289.350387555846</v>
       </c>
       <c r="H11" t="n">
-        <v>187.9486787156652</v>
+        <v>206.7657386051779</v>
       </c>
       <c r="I11" t="n">
-        <v>41.10006796559793</v>
+        <v>57.06713645838295</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>49.58377704487296</v>
+        <v>67.13785121100022</v>
       </c>
       <c r="T11" t="n">
-        <v>75.26670767660289</v>
+        <v>94.67405012349332</v>
       </c>
       <c r="U11" t="n">
-        <v>106.2260020542512</v>
+        <v>126.0659583217054</v>
       </c>
       <c r="V11" t="n">
-        <v>182.683046076751</v>
+        <v>202.5310556555828</v>
       </c>
       <c r="W11" t="n">
-        <v>204.1717563240291</v>
+        <v>224.0197659028609</v>
       </c>
       <c r="X11" t="n">
-        <v>224.6618882850852</v>
+        <v>244.5098978639169</v>
       </c>
       <c r="Y11" t="n">
-        <v>241.1687262626697</v>
+        <v>261.0167358415015</v>
       </c>
     </row>
     <row r="12">
@@ -23336,22 +23336,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>21.46397125648346</v>
+        <v>41.31198083531524</v>
       </c>
       <c r="C12" t="n">
-        <v>27.63928659493186</v>
+        <v>47.48729617376364</v>
       </c>
       <c r="D12" t="n">
-        <v>2.375853171254874</v>
+        <v>22.22386275008665</v>
       </c>
       <c r="E12" t="n">
-        <v>12.57586806201707</v>
+        <v>32.42387764084884</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>19.84800957883178</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>11.73111613815141</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -23387,25 +23387,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>20.34807296286831</v>
+        <v>39.19563310727833</v>
       </c>
       <c r="T12" t="n">
-        <v>53.73581169647169</v>
+        <v>73.36672256686577</v>
       </c>
       <c r="U12" t="n">
-        <v>80.84997646770574</v>
+        <v>100.6944425420473</v>
       </c>
       <c r="V12" t="n">
-        <v>87.73137475604139</v>
+        <v>107.5793843348732</v>
       </c>
       <c r="W12" t="n">
-        <v>106.6257707675357</v>
+        <v>126.4737803463675</v>
       </c>
       <c r="X12" t="n">
-        <v>60.7037728100936</v>
+        <v>80.55178238892537</v>
       </c>
       <c r="Y12" t="n">
-        <v>60.61348338392048</v>
+        <v>80.46149296275226</v>
       </c>
     </row>
     <row r="13">
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>34.76276778855342</v>
+        <v>54.6107773673852</v>
       </c>
       <c r="C13" t="n">
-        <v>22.17760870524396</v>
+        <v>42.02561828407573</v>
       </c>
       <c r="D13" t="n">
-        <v>3.546260624828477</v>
+        <v>23.39427020366026</v>
       </c>
       <c r="E13" t="n">
-        <v>1.364750253185292</v>
+        <v>21.21275983201707</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3518356295473666</v>
+        <v>20.19984520837914</v>
       </c>
       <c r="G13" t="n">
-        <v>22.6389550045707</v>
+        <v>42.44180910541706</v>
       </c>
       <c r="H13" t="n">
-        <v>14.64350468339122</v>
+        <v>34.09004101249829</v>
       </c>
       <c r="I13" t="n">
-        <v>1.876335576166746</v>
+        <v>20.36639678067402</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>19.50792483238837</v>
+        <v>37.32557991925856</v>
       </c>
       <c r="S13" t="n">
-        <v>74.01874447734727</v>
+        <v>93.07981722619718</v>
       </c>
       <c r="T13" t="n">
-        <v>81.66799865819792</v>
+        <v>101.3230711947284</v>
       </c>
       <c r="U13" t="n">
-        <v>141.2343908561704</v>
+        <v>161.0799374089303</v>
       </c>
       <c r="V13" t="n">
-        <v>107.0684309304441</v>
+        <v>126.9164405092759</v>
       </c>
       <c r="W13" t="n">
-        <v>141.4537859432071</v>
+        <v>161.3017955220389</v>
       </c>
       <c r="X13" t="n">
-        <v>80.64044299565327</v>
+        <v>100.4884525744851</v>
       </c>
       <c r="Y13" t="n">
-        <v>73.51544095871091</v>
+        <v>93.36345053754269</v>
       </c>
     </row>
     <row r="14">
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>237.6646292700967</v>
+        <v>257.5126388489285</v>
       </c>
       <c r="C14" t="n">
-        <v>220.2036793776237</v>
+        <v>240.0516889564555</v>
       </c>
       <c r="D14" t="n">
-        <v>209.6138292272991</v>
+        <v>229.4618388061309</v>
       </c>
       <c r="E14" t="n">
-        <v>236.8611576788779</v>
+        <v>256.7091672577097</v>
       </c>
       <c r="F14" t="n">
-        <v>261.8068333483276</v>
+        <v>281.6548429271593</v>
       </c>
       <c r="G14" t="n">
-        <v>269.6030443692339</v>
+        <v>289.350387555846</v>
       </c>
       <c r="H14" t="n">
-        <v>187.9486787156652</v>
+        <v>206.7657386051779</v>
       </c>
       <c r="I14" t="n">
-        <v>41.10006796559793</v>
+        <v>57.06713645838295</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>49.58377704487296</v>
+        <v>67.13785121100022</v>
       </c>
       <c r="T14" t="n">
-        <v>75.26670767660289</v>
+        <v>94.67405012349332</v>
       </c>
       <c r="U14" t="n">
-        <v>106.2260020542512</v>
+        <v>126.0659583217054</v>
       </c>
       <c r="V14" t="n">
-        <v>182.683046076751</v>
+        <v>202.5310556555828</v>
       </c>
       <c r="W14" t="n">
-        <v>204.1717563240291</v>
+        <v>224.0197659028609</v>
       </c>
       <c r="X14" t="n">
-        <v>224.6618882850852</v>
+        <v>244.5098978639169</v>
       </c>
       <c r="Y14" t="n">
-        <v>241.1687262626697</v>
+        <v>261.0167358415015</v>
       </c>
     </row>
     <row r="15">
@@ -23573,22 +23573,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>21.46397125648346</v>
+        <v>41.31198083531524</v>
       </c>
       <c r="C15" t="n">
-        <v>27.63928659493186</v>
+        <v>47.48729617376364</v>
       </c>
       <c r="D15" t="n">
-        <v>2.375853171254874</v>
+        <v>22.22386275008665</v>
       </c>
       <c r="E15" t="n">
-        <v>12.57586806201707</v>
+        <v>32.42387764084884</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>19.84800957883178</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>11.73111613815141</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -23624,25 +23624,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>20.34807296286831</v>
+        <v>39.19563310727833</v>
       </c>
       <c r="T15" t="n">
-        <v>53.73581169647169</v>
+        <v>73.36672256686577</v>
       </c>
       <c r="U15" t="n">
-        <v>80.84997646770574</v>
+        <v>100.6944425420473</v>
       </c>
       <c r="V15" t="n">
-        <v>87.73137475604139</v>
+        <v>107.5793843348732</v>
       </c>
       <c r="W15" t="n">
-        <v>106.6257707675357</v>
+        <v>126.4737803463675</v>
       </c>
       <c r="X15" t="n">
-        <v>60.7037728100936</v>
+        <v>80.55178238892537</v>
       </c>
       <c r="Y15" t="n">
-        <v>60.61348338392048</v>
+        <v>80.46149296275226</v>
       </c>
     </row>
     <row r="16">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>34.76276778855342</v>
+        <v>54.6107773673852</v>
       </c>
       <c r="C16" t="n">
-        <v>22.17760870524396</v>
+        <v>42.02561828407573</v>
       </c>
       <c r="D16" t="n">
-        <v>3.546260624828477</v>
+        <v>23.39427020366026</v>
       </c>
       <c r="E16" t="n">
-        <v>1.364750253185292</v>
+        <v>21.21275983201707</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3518356295473666</v>
+        <v>20.19984520837914</v>
       </c>
       <c r="G16" t="n">
-        <v>22.6389550045707</v>
+        <v>42.44180910541706</v>
       </c>
       <c r="H16" t="n">
-        <v>14.64350468339122</v>
+        <v>34.09004101249829</v>
       </c>
       <c r="I16" t="n">
-        <v>1.876335576166746</v>
+        <v>20.36639678067402</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>19.50792483238837</v>
+        <v>37.32557991925856</v>
       </c>
       <c r="S16" t="n">
-        <v>74.01874447734727</v>
+        <v>93.07981722619718</v>
       </c>
       <c r="T16" t="n">
-        <v>81.66799865819792</v>
+        <v>101.3230711947284</v>
       </c>
       <c r="U16" t="n">
-        <v>141.2343908561704</v>
+        <v>161.0799374089303</v>
       </c>
       <c r="V16" t="n">
-        <v>107.0684309304441</v>
+        <v>126.9164405092759</v>
       </c>
       <c r="W16" t="n">
-        <v>141.4537859432071</v>
+        <v>161.3017955220389</v>
       </c>
       <c r="X16" t="n">
-        <v>80.64044299565327</v>
+        <v>100.4884525744851</v>
       </c>
       <c r="Y16" t="n">
-        <v>73.51544095871091</v>
+        <v>93.36345053754269</v>
       </c>
     </row>
     <row r="17">
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>216.2006580136132</v>
+        <v>235.2887760988418</v>
       </c>
       <c r="C17" t="n">
-        <v>198.7397081211402</v>
+        <v>217.8278262063688</v>
       </c>
       <c r="D17" t="n">
-        <v>188.1498579708156</v>
+        <v>207.2379760560442</v>
       </c>
       <c r="E17" t="n">
-        <v>215.3971864223944</v>
+        <v>234.485304507623</v>
       </c>
       <c r="F17" t="n">
-        <v>240.3428620918441</v>
+        <v>259.4309801770727</v>
       </c>
       <c r="G17" t="n">
-        <v>248.1390731127504</v>
+        <v>267.1265248057593</v>
       </c>
       <c r="H17" t="n">
-        <v>166.4847074591818</v>
+        <v>184.5418758550912</v>
       </c>
       <c r="I17" t="n">
-        <v>19.63609670911447</v>
+        <v>34.84327370829629</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>28.1198057883895</v>
+        <v>44.91398846091357</v>
       </c>
       <c r="T17" t="n">
-        <v>53.80273642011943</v>
+        <v>72.45018737340666</v>
       </c>
       <c r="U17" t="n">
-        <v>84.76203079776778</v>
+        <v>103.8420955716188</v>
       </c>
       <c r="V17" t="n">
-        <v>161.2190748202676</v>
+        <v>180.3071929054962</v>
       </c>
       <c r="W17" t="n">
-        <v>182.7077850675457</v>
+        <v>201.7959031527743</v>
       </c>
       <c r="X17" t="n">
-        <v>203.1979170286017</v>
+        <v>222.2860351138303</v>
       </c>
       <c r="Y17" t="n">
-        <v>219.7047550061862</v>
+        <v>238.7928730914148</v>
       </c>
     </row>
     <row r="18">
@@ -23810,16 +23810,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>19.08811808522859</v>
       </c>
       <c r="C18" t="n">
-        <v>6.175315338448399</v>
+        <v>25.26343342367699</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>10.20001489076219</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -23861,25 +23861,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>16.97177035719167</v>
       </c>
       <c r="T18" t="n">
-        <v>32.27184043998821</v>
+        <v>51.14285981677912</v>
       </c>
       <c r="U18" t="n">
-        <v>59.38600521122228</v>
+        <v>78.4705797919606</v>
       </c>
       <c r="V18" t="n">
-        <v>66.26740349955793</v>
+        <v>85.35552158478652</v>
       </c>
       <c r="W18" t="n">
-        <v>85.16179951105227</v>
+        <v>104.2499175962809</v>
       </c>
       <c r="X18" t="n">
-        <v>39.23980155361014</v>
+        <v>58.32791963883872</v>
       </c>
       <c r="Y18" t="n">
-        <v>39.14951212743702</v>
+        <v>58.23763021266561</v>
       </c>
     </row>
     <row r="19">
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>13.29879653206996</v>
+        <v>32.38691461729854</v>
       </c>
       <c r="C19" t="n">
-        <v>0.713637448760494</v>
+        <v>19.80175553398908</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1.170407453573603</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23904,10 +23904,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.174983748087243</v>
+        <v>20.21794635533041</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>11.86617826241164</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>15.10171716917191</v>
       </c>
       <c r="S19" t="n">
-        <v>52.55477322086381</v>
+        <v>70.85595447611053</v>
       </c>
       <c r="T19" t="n">
-        <v>60.20402740171446</v>
+        <v>79.09920844464179</v>
       </c>
       <c r="U19" t="n">
-        <v>119.7704195996869</v>
+        <v>138.8560746588436</v>
       </c>
       <c r="V19" t="n">
-        <v>85.60445967396066</v>
+        <v>104.6925777591892</v>
       </c>
       <c r="W19" t="n">
-        <v>119.9898146867237</v>
+        <v>139.0779327719522</v>
       </c>
       <c r="X19" t="n">
-        <v>59.17647173916981</v>
+        <v>78.2645898243984</v>
       </c>
       <c r="Y19" t="n">
-        <v>52.05146970222745</v>
+        <v>71.13958778745604</v>
       </c>
     </row>
     <row r="20">
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>216.2006580136132</v>
+        <v>235.2887760988418</v>
       </c>
       <c r="C20" t="n">
-        <v>198.7397081211402</v>
+        <v>217.8278262063688</v>
       </c>
       <c r="D20" t="n">
-        <v>188.1498579708156</v>
+        <v>207.2379760560442</v>
       </c>
       <c r="E20" t="n">
-        <v>215.3971864223944</v>
+        <v>234.485304507623</v>
       </c>
       <c r="F20" t="n">
-        <v>240.3428620918441</v>
+        <v>259.4309801770727</v>
       </c>
       <c r="G20" t="n">
-        <v>248.1390731127504</v>
+        <v>267.1265248057593</v>
       </c>
       <c r="H20" t="n">
-        <v>166.4847074591818</v>
+        <v>184.5418758550912</v>
       </c>
       <c r="I20" t="n">
-        <v>19.63609670911447</v>
+        <v>34.84327370829629</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>28.1198057883895</v>
+        <v>44.91398846091357</v>
       </c>
       <c r="T20" t="n">
-        <v>53.80273642011943</v>
+        <v>72.45018737340666</v>
       </c>
       <c r="U20" t="n">
-        <v>84.76203079776778</v>
+        <v>103.8420955716188</v>
       </c>
       <c r="V20" t="n">
-        <v>161.2190748202676</v>
+        <v>180.3071929054962</v>
       </c>
       <c r="W20" t="n">
-        <v>182.7077850675457</v>
+        <v>201.7959031527743</v>
       </c>
       <c r="X20" t="n">
-        <v>203.1979170286017</v>
+        <v>222.2860351138303</v>
       </c>
       <c r="Y20" t="n">
-        <v>219.7047550061862</v>
+        <v>238.7928730914148</v>
       </c>
     </row>
     <row r="21">
@@ -24047,16 +24047,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>19.08811808522859</v>
       </c>
       <c r="C21" t="n">
-        <v>6.175315338448399</v>
+        <v>25.26343342367699</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>10.20001489076219</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -24098,25 +24098,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>16.97177035719167</v>
       </c>
       <c r="T21" t="n">
-        <v>32.27184043998821</v>
+        <v>51.14285981677912</v>
       </c>
       <c r="U21" t="n">
-        <v>59.38600521122228</v>
+        <v>78.4705797919606</v>
       </c>
       <c r="V21" t="n">
-        <v>66.26740349955793</v>
+        <v>85.35552158478652</v>
       </c>
       <c r="W21" t="n">
-        <v>85.16179951105227</v>
+        <v>104.2499175962809</v>
       </c>
       <c r="X21" t="n">
-        <v>39.23980155361014</v>
+        <v>58.32791963883872</v>
       </c>
       <c r="Y21" t="n">
-        <v>39.14951212743702</v>
+        <v>58.23763021266561</v>
       </c>
     </row>
     <row r="22">
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>13.29879653206996</v>
+        <v>32.38691461729854</v>
       </c>
       <c r="C22" t="n">
-        <v>0.713637448760494</v>
+        <v>19.80175553398908</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1.170407453573603</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,10 +24141,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.174983748087243</v>
+        <v>20.21794635533041</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>11.86617826241164</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>15.10171716917191</v>
       </c>
       <c r="S22" t="n">
-        <v>52.55477322086381</v>
+        <v>70.85595447611053</v>
       </c>
       <c r="T22" t="n">
-        <v>60.20402740171446</v>
+        <v>79.09920844464179</v>
       </c>
       <c r="U22" t="n">
-        <v>119.7704195996869</v>
+        <v>138.8560746588436</v>
       </c>
       <c r="V22" t="n">
-        <v>85.60445967396066</v>
+        <v>104.6925777591892</v>
       </c>
       <c r="W22" t="n">
-        <v>119.9898146867237</v>
+        <v>139.0779327719522</v>
       </c>
       <c r="X22" t="n">
-        <v>59.17647173916981</v>
+        <v>78.2645898243984</v>
       </c>
       <c r="Y22" t="n">
-        <v>52.05146970222745</v>
+        <v>71.13958778745604</v>
       </c>
     </row>
     <row r="23">
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>216.2006580136132</v>
+        <v>235.2887760988418</v>
       </c>
       <c r="C23" t="n">
-        <v>198.7397081211402</v>
+        <v>217.8278262063688</v>
       </c>
       <c r="D23" t="n">
-        <v>188.1498579708156</v>
+        <v>207.2379760560442</v>
       </c>
       <c r="E23" t="n">
-        <v>215.3971864223944</v>
+        <v>234.485304507623</v>
       </c>
       <c r="F23" t="n">
-        <v>240.3428620918441</v>
+        <v>259.4309801770727</v>
       </c>
       <c r="G23" t="n">
-        <v>248.1390731127504</v>
+        <v>267.1265248057593</v>
       </c>
       <c r="H23" t="n">
-        <v>166.4847074591818</v>
+        <v>184.5418758550912</v>
       </c>
       <c r="I23" t="n">
-        <v>19.63609670911447</v>
+        <v>34.84327370829629</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>28.1198057883895</v>
+        <v>44.91398846091357</v>
       </c>
       <c r="T23" t="n">
-        <v>53.80273642011943</v>
+        <v>72.45018737340666</v>
       </c>
       <c r="U23" t="n">
-        <v>84.76203079776778</v>
+        <v>103.8420955716188</v>
       </c>
       <c r="V23" t="n">
-        <v>161.2190748202676</v>
+        <v>180.3071929054962</v>
       </c>
       <c r="W23" t="n">
-        <v>182.7077850675457</v>
+        <v>201.7959031527743</v>
       </c>
       <c r="X23" t="n">
-        <v>203.1979170286017</v>
+        <v>222.2860351138303</v>
       </c>
       <c r="Y23" t="n">
-        <v>219.7047550061862</v>
+        <v>238.7928730914148</v>
       </c>
     </row>
     <row r="24">
@@ -24284,16 +24284,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>19.08811808522859</v>
       </c>
       <c r="C24" t="n">
-        <v>6.175315338448399</v>
+        <v>25.26343342367699</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>10.20001489076219</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -24335,25 +24335,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>16.97177035719167</v>
       </c>
       <c r="T24" t="n">
-        <v>32.27184043998821</v>
+        <v>51.14285981677912</v>
       </c>
       <c r="U24" t="n">
-        <v>59.38600521122228</v>
+        <v>78.4705797919606</v>
       </c>
       <c r="V24" t="n">
-        <v>66.26740349955793</v>
+        <v>85.35552158478652</v>
       </c>
       <c r="W24" t="n">
-        <v>85.16179951105227</v>
+        <v>104.2499175962809</v>
       </c>
       <c r="X24" t="n">
-        <v>39.23980155361014</v>
+        <v>58.32791963883872</v>
       </c>
       <c r="Y24" t="n">
-        <v>39.14951212743702</v>
+        <v>58.23763021266561</v>
       </c>
     </row>
     <row r="25">
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>13.29879653206996</v>
+        <v>32.38691461729854</v>
       </c>
       <c r="C25" t="n">
-        <v>0.713637448760494</v>
+        <v>19.80175553398908</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1.170407453573603</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24378,10 +24378,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.174983748087243</v>
+        <v>20.21794635533041</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>11.86617826241164</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>15.10171716917191</v>
       </c>
       <c r="S25" t="n">
-        <v>52.55477322086381</v>
+        <v>70.85595447611053</v>
       </c>
       <c r="T25" t="n">
-        <v>60.20402740171446</v>
+        <v>79.09920844464179</v>
       </c>
       <c r="U25" t="n">
-        <v>119.7704195996869</v>
+        <v>138.8560746588436</v>
       </c>
       <c r="V25" t="n">
-        <v>85.60445967396066</v>
+        <v>104.6925777591892</v>
       </c>
       <c r="W25" t="n">
-        <v>119.9898146867237</v>
+        <v>139.0779327719522</v>
       </c>
       <c r="X25" t="n">
-        <v>59.17647173916981</v>
+        <v>78.2645898243984</v>
       </c>
       <c r="Y25" t="n">
-        <v>52.05146970222745</v>
+        <v>71.13958778745604</v>
       </c>
     </row>
     <row r="26">
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>272.4691602926472</v>
+        <v>278.7926455529126</v>
       </c>
       <c r="C26" t="n">
-        <v>255.0082104001742</v>
+        <v>261.3316956604397</v>
       </c>
       <c r="D26" t="n">
-        <v>244.4183602498496</v>
+        <v>250.741845510115</v>
       </c>
       <c r="E26" t="n">
-        <v>271.6656887014284</v>
+        <v>277.9891739616938</v>
       </c>
       <c r="F26" t="n">
-        <v>296.6113643708781</v>
+        <v>302.9348496311435</v>
       </c>
       <c r="G26" t="n">
-        <v>304.4075753917843</v>
+        <v>310.6303942598302</v>
       </c>
       <c r="H26" t="n">
-        <v>222.7532097382157</v>
+        <v>228.0457453091621</v>
       </c>
       <c r="I26" t="n">
-        <v>75.90459898814844</v>
+        <v>78.34714316236713</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>84.38830806742347</v>
+        <v>88.41785791498441</v>
       </c>
       <c r="T26" t="n">
-        <v>110.0712386991534</v>
+        <v>115.9540568274775</v>
       </c>
       <c r="U26" t="n">
-        <v>141.0305330768018</v>
+        <v>147.3459650256896</v>
       </c>
       <c r="V26" t="n">
-        <v>217.4875770993015</v>
+        <v>223.811062359567</v>
       </c>
       <c r="W26" t="n">
-        <v>238.9762873465796</v>
+        <v>245.2997726068451</v>
       </c>
       <c r="X26" t="n">
-        <v>259.4664193076356</v>
+        <v>265.7899045679011</v>
       </c>
       <c r="Y26" t="n">
-        <v>275.9732572852202</v>
+        <v>282.2967425454857</v>
       </c>
     </row>
     <row r="27">
@@ -24521,25 +24521,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>56.26850227903397</v>
+        <v>62.59198753929942</v>
       </c>
       <c r="C27" t="n">
-        <v>62.44381761748237</v>
+        <v>68.76730287774782</v>
       </c>
       <c r="D27" t="n">
-        <v>37.18038419380538</v>
+        <v>43.50386945407084</v>
       </c>
       <c r="E27" t="n">
-        <v>47.38039908456757</v>
+        <v>53.70388434483303</v>
       </c>
       <c r="F27" t="n">
-        <v>34.80453102255051</v>
+        <v>41.12801628281596</v>
       </c>
       <c r="G27" t="n">
-        <v>26.74149885012237</v>
+        <v>33.01112284213559</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>4.516096987609714</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -24572,25 +24572,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>55.15260398541882</v>
+        <v>60.47563981126251</v>
       </c>
       <c r="T27" t="n">
-        <v>88.54034271902218</v>
+        <v>94.64672927084996</v>
       </c>
       <c r="U27" t="n">
-        <v>115.6545074902563</v>
+        <v>121.9744492460314</v>
       </c>
       <c r="V27" t="n">
-        <v>122.5359057785919</v>
+        <v>128.8593910388574</v>
       </c>
       <c r="W27" t="n">
-        <v>141.4303017900862</v>
+        <v>147.7537870503517</v>
       </c>
       <c r="X27" t="n">
-        <v>95.5083038326441</v>
+        <v>101.8317890929096</v>
       </c>
       <c r="Y27" t="n">
-        <v>95.41801440647099</v>
+        <v>101.7414996667364</v>
       </c>
     </row>
     <row r="28">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>69.56729881110392</v>
+        <v>75.89078407136938</v>
       </c>
       <c r="C28" t="n">
-        <v>56.98213972779446</v>
+        <v>63.30562498805992</v>
       </c>
       <c r="D28" t="n">
-        <v>38.35079164737898</v>
+        <v>44.67427690764444</v>
       </c>
       <c r="E28" t="n">
-        <v>36.1692812757358</v>
+        <v>42.49276653600126</v>
       </c>
       <c r="F28" t="n">
-        <v>35.15636665209787</v>
+        <v>41.47985191236333</v>
       </c>
       <c r="G28" t="n">
-        <v>57.44348602712121</v>
+        <v>63.72181580940125</v>
       </c>
       <c r="H28" t="n">
-        <v>49.44803570594173</v>
+        <v>55.37004771648247</v>
       </c>
       <c r="I28" t="n">
-        <v>36.68086659871726</v>
+        <v>41.64640348465821</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>54.31245585493888</v>
+        <v>58.60558662324274</v>
       </c>
       <c r="S28" t="n">
-        <v>108.8232754998978</v>
+        <v>114.3598239301814</v>
       </c>
       <c r="T28" t="n">
-        <v>116.4725296807484</v>
+        <v>122.6030778987126</v>
       </c>
       <c r="U28" t="n">
-        <v>176.0389218787209</v>
+        <v>182.3599441129145</v>
       </c>
       <c r="V28" t="n">
-        <v>141.8729619529946</v>
+        <v>148.1964472132601</v>
       </c>
       <c r="W28" t="n">
-        <v>176.2583169657576</v>
+        <v>182.5818022260231</v>
       </c>
       <c r="X28" t="n">
-        <v>115.4449740182038</v>
+        <v>121.7684592784692</v>
       </c>
       <c r="Y28" t="n">
-        <v>108.3199719812614</v>
+        <v>114.6434572415269</v>
       </c>
     </row>
     <row r="29">
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>272.4691602926472</v>
+        <v>278.7926455529126</v>
       </c>
       <c r="C29" t="n">
-        <v>255.0082104001742</v>
+        <v>261.3316956604397</v>
       </c>
       <c r="D29" t="n">
-        <v>244.4183602498496</v>
+        <v>250.741845510115</v>
       </c>
       <c r="E29" t="n">
-        <v>271.6656887014284</v>
+        <v>277.9891739616938</v>
       </c>
       <c r="F29" t="n">
-        <v>296.6113643708781</v>
+        <v>302.9348496311435</v>
       </c>
       <c r="G29" t="n">
-        <v>304.4075753917843</v>
+        <v>310.6303942598302</v>
       </c>
       <c r="H29" t="n">
-        <v>222.7532097382157</v>
+        <v>228.0457453091621</v>
       </c>
       <c r="I29" t="n">
-        <v>75.90459898814844</v>
+        <v>78.34714316236713</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>84.38830806742347</v>
+        <v>88.41785791498441</v>
       </c>
       <c r="T29" t="n">
-        <v>110.0712386991534</v>
+        <v>115.9540568274775</v>
       </c>
       <c r="U29" t="n">
-        <v>141.0305330768018</v>
+        <v>147.3459650256896</v>
       </c>
       <c r="V29" t="n">
-        <v>217.4875770993015</v>
+        <v>223.811062359567</v>
       </c>
       <c r="W29" t="n">
-        <v>238.9762873465796</v>
+        <v>245.2997726068451</v>
       </c>
       <c r="X29" t="n">
-        <v>259.4664193076356</v>
+        <v>265.7899045679011</v>
       </c>
       <c r="Y29" t="n">
-        <v>275.9732572852202</v>
+        <v>282.2967425454857</v>
       </c>
     </row>
     <row r="30">
@@ -24758,25 +24758,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>56.26850227903397</v>
+        <v>62.59198753929942</v>
       </c>
       <c r="C30" t="n">
-        <v>62.44381761748237</v>
+        <v>68.76730287774782</v>
       </c>
       <c r="D30" t="n">
-        <v>37.18038419380538</v>
+        <v>43.50386945407084</v>
       </c>
       <c r="E30" t="n">
-        <v>47.38039908456757</v>
+        <v>53.70388434483303</v>
       </c>
       <c r="F30" t="n">
-        <v>34.80453102255051</v>
+        <v>41.12801628281596</v>
       </c>
       <c r="G30" t="n">
-        <v>26.74149885012237</v>
+        <v>33.01112284213559</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>4.516096987609714</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24809,25 +24809,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>55.15260398541882</v>
+        <v>60.47563981126251</v>
       </c>
       <c r="T30" t="n">
-        <v>88.54034271902218</v>
+        <v>94.64672927084996</v>
       </c>
       <c r="U30" t="n">
-        <v>115.6545074902563</v>
+        <v>121.9744492460314</v>
       </c>
       <c r="V30" t="n">
-        <v>122.5359057785919</v>
+        <v>128.8593910388574</v>
       </c>
       <c r="W30" t="n">
-        <v>141.4303017900862</v>
+        <v>147.7537870503517</v>
       </c>
       <c r="X30" t="n">
-        <v>95.5083038326441</v>
+        <v>101.8317890929096</v>
       </c>
       <c r="Y30" t="n">
-        <v>95.41801440647099</v>
+        <v>101.7414996667364</v>
       </c>
     </row>
     <row r="31">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>69.56729881110392</v>
+        <v>75.89078407136938</v>
       </c>
       <c r="C31" t="n">
-        <v>56.98213972779446</v>
+        <v>63.30562498805992</v>
       </c>
       <c r="D31" t="n">
-        <v>38.35079164737898</v>
+        <v>44.67427690764444</v>
       </c>
       <c r="E31" t="n">
-        <v>36.1692812757358</v>
+        <v>42.49276653600126</v>
       </c>
       <c r="F31" t="n">
-        <v>35.15636665209787</v>
+        <v>41.47985191236333</v>
       </c>
       <c r="G31" t="n">
-        <v>57.44348602712121</v>
+        <v>63.72181580940125</v>
       </c>
       <c r="H31" t="n">
-        <v>49.44803570594173</v>
+        <v>55.37004771648247</v>
       </c>
       <c r="I31" t="n">
-        <v>36.68086659871726</v>
+        <v>41.64640348465821</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.31245585493888</v>
+        <v>58.60558662324274</v>
       </c>
       <c r="S31" t="n">
-        <v>108.8232754998978</v>
+        <v>114.3598239301814</v>
       </c>
       <c r="T31" t="n">
-        <v>116.4725296807484</v>
+        <v>122.6030778987126</v>
       </c>
       <c r="U31" t="n">
-        <v>176.0389218787209</v>
+        <v>182.3599441129145</v>
       </c>
       <c r="V31" t="n">
-        <v>141.8729619529946</v>
+        <v>148.1964472132601</v>
       </c>
       <c r="W31" t="n">
-        <v>176.2583169657576</v>
+        <v>182.5818022260231</v>
       </c>
       <c r="X31" t="n">
-        <v>115.4449740182038</v>
+        <v>121.7684592784692</v>
       </c>
       <c r="Y31" t="n">
-        <v>108.3199719812614</v>
+        <v>114.6434572415269</v>
       </c>
     </row>
     <row r="32">
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>215.025674265526</v>
+        <v>225.0887612080796</v>
       </c>
       <c r="C32" t="n">
-        <v>197.564724373053</v>
+        <v>207.6278113156066</v>
       </c>
       <c r="D32" t="n">
-        <v>186.9748742227284</v>
+        <v>197.037961165282</v>
       </c>
       <c r="E32" t="n">
-        <v>214.2222026743072</v>
+        <v>224.2852896168608</v>
       </c>
       <c r="F32" t="n">
-        <v>239.1678783437569</v>
+        <v>249.2309652863105</v>
       </c>
       <c r="G32" t="n">
-        <v>246.9640893646632</v>
+        <v>256.9265099149972</v>
       </c>
       <c r="H32" t="n">
-        <v>165.3097237110945</v>
+        <v>174.341860964329</v>
       </c>
       <c r="I32" t="n">
-        <v>18.46111296102723</v>
+        <v>24.6432588175341</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>26.94482204030226</v>
+        <v>34.71397357015138</v>
       </c>
       <c r="T32" t="n">
-        <v>52.62775267203219</v>
+        <v>62.25017248264447</v>
       </c>
       <c r="U32" t="n">
-        <v>83.58704704968054</v>
+        <v>93.64208068085659</v>
       </c>
       <c r="V32" t="n">
-        <v>160.0440910721803</v>
+        <v>170.107178014734</v>
       </c>
       <c r="W32" t="n">
-        <v>181.5328013194584</v>
+        <v>191.5958882620121</v>
       </c>
       <c r="X32" t="n">
-        <v>202.0229332805145</v>
+        <v>212.0860202230681</v>
       </c>
       <c r="Y32" t="n">
-        <v>218.529771258099</v>
+        <v>228.5928582006526</v>
       </c>
     </row>
     <row r="33">
@@ -24995,10 +24995,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>8.888103194466396</v>
       </c>
       <c r="C33" t="n">
-        <v>5.000331590361156</v>
+        <v>15.0634185329148</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -25046,25 +25046,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>6.771755466429482</v>
       </c>
       <c r="T33" t="n">
-        <v>31.09685669190097</v>
+        <v>40.94284492601693</v>
       </c>
       <c r="U33" t="n">
-        <v>58.21102146313504</v>
+        <v>68.27056490119841</v>
       </c>
       <c r="V33" t="n">
-        <v>65.09241975147069</v>
+        <v>75.15550669402433</v>
       </c>
       <c r="W33" t="n">
-        <v>83.98681576296502</v>
+        <v>94.04990270551866</v>
       </c>
       <c r="X33" t="n">
-        <v>38.06481780552289</v>
+        <v>48.12790474807653</v>
       </c>
       <c r="Y33" t="n">
-        <v>37.97452837934978</v>
+        <v>48.03761532190342</v>
       </c>
     </row>
     <row r="34">
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>12.12381278398271</v>
+        <v>22.18689972653635</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>9.60174064322689</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25089,10 +25089,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>10.01793146456822</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1.666163371649446</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>4.901702278409715</v>
       </c>
       <c r="S34" t="n">
-        <v>51.37978947277657</v>
+        <v>60.65593958534834</v>
       </c>
       <c r="T34" t="n">
-        <v>59.02904365362721</v>
+        <v>68.8991935538796</v>
       </c>
       <c r="U34" t="n">
-        <v>118.5954358515997</v>
+        <v>128.6560597680814</v>
       </c>
       <c r="V34" t="n">
-        <v>84.42947592587342</v>
+        <v>94.49256286842706</v>
       </c>
       <c r="W34" t="n">
-        <v>118.8148309386364</v>
+        <v>128.8779178811901</v>
       </c>
       <c r="X34" t="n">
-        <v>58.00148799108257</v>
+        <v>68.06457493363621</v>
       </c>
       <c r="Y34" t="n">
-        <v>50.87648595414021</v>
+        <v>60.93957289669385</v>
       </c>
     </row>
     <row r="35">
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>215.025674265526</v>
+        <v>225.0887612080796</v>
       </c>
       <c r="C35" t="n">
-        <v>197.564724373053</v>
+        <v>207.6278113156066</v>
       </c>
       <c r="D35" t="n">
-        <v>186.9748742227284</v>
+        <v>197.037961165282</v>
       </c>
       <c r="E35" t="n">
-        <v>214.2222026743072</v>
+        <v>224.2852896168608</v>
       </c>
       <c r="F35" t="n">
-        <v>239.1678783437569</v>
+        <v>249.2309652863105</v>
       </c>
       <c r="G35" t="n">
-        <v>246.9640893646632</v>
+        <v>256.9265099149972</v>
       </c>
       <c r="H35" t="n">
-        <v>165.3097237110945</v>
+        <v>174.341860964329</v>
       </c>
       <c r="I35" t="n">
-        <v>18.46111296102723</v>
+        <v>24.6432588175341</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>26.94482204030226</v>
+        <v>34.71397357015138</v>
       </c>
       <c r="T35" t="n">
-        <v>52.62775267203219</v>
+        <v>62.25017248264447</v>
       </c>
       <c r="U35" t="n">
-        <v>83.58704704968054</v>
+        <v>93.64208068085659</v>
       </c>
       <c r="V35" t="n">
-        <v>160.0440910721803</v>
+        <v>170.107178014734</v>
       </c>
       <c r="W35" t="n">
-        <v>181.5328013194584</v>
+        <v>191.5958882620121</v>
       </c>
       <c r="X35" t="n">
-        <v>202.0229332805145</v>
+        <v>212.0860202230681</v>
       </c>
       <c r="Y35" t="n">
-        <v>218.529771258099</v>
+        <v>228.5928582006526</v>
       </c>
     </row>
     <row r="36">
@@ -25232,10 +25232,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>8.888103194466396</v>
       </c>
       <c r="C36" t="n">
-        <v>5.000331590361156</v>
+        <v>15.0634185329148</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -25283,25 +25283,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>6.771755466429482</v>
       </c>
       <c r="T36" t="n">
-        <v>31.09685669190097</v>
+        <v>40.94284492601693</v>
       </c>
       <c r="U36" t="n">
-        <v>58.21102146313504</v>
+        <v>68.27056490119841</v>
       </c>
       <c r="V36" t="n">
-        <v>65.09241975147069</v>
+        <v>75.15550669402433</v>
       </c>
       <c r="W36" t="n">
-        <v>83.98681576296502</v>
+        <v>94.04990270551866</v>
       </c>
       <c r="X36" t="n">
-        <v>38.06481780552289</v>
+        <v>48.12790474807653</v>
       </c>
       <c r="Y36" t="n">
-        <v>37.97452837934978</v>
+        <v>48.03761532190342</v>
       </c>
     </row>
     <row r="37">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>12.12381278398271</v>
+        <v>22.18689972653635</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>9.60174064322689</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25326,10 +25326,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>10.01793146456822</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1.666163371649446</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>4.901702278409715</v>
       </c>
       <c r="S37" t="n">
-        <v>51.37978947277657</v>
+        <v>60.65593958534834</v>
       </c>
       <c r="T37" t="n">
-        <v>59.02904365362721</v>
+        <v>68.8991935538796</v>
       </c>
       <c r="U37" t="n">
-        <v>118.5954358515997</v>
+        <v>128.6560597680814</v>
       </c>
       <c r="V37" t="n">
-        <v>84.42947592587342</v>
+        <v>94.49256286842706</v>
       </c>
       <c r="W37" t="n">
-        <v>118.8148309386364</v>
+        <v>128.8779178811901</v>
       </c>
       <c r="X37" t="n">
-        <v>58.00148799108257</v>
+        <v>68.06457493363621</v>
       </c>
       <c r="Y37" t="n">
-        <v>50.87648595414021</v>
+        <v>60.93957289669385</v>
       </c>
     </row>
     <row r="38">
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>215.025674265526</v>
+        <v>225.0887612080796</v>
       </c>
       <c r="C38" t="n">
-        <v>197.564724373053</v>
+        <v>207.6278113156066</v>
       </c>
       <c r="D38" t="n">
-        <v>186.9748742227284</v>
+        <v>197.037961165282</v>
       </c>
       <c r="E38" t="n">
-        <v>214.2222026743072</v>
+        <v>224.2852896168608</v>
       </c>
       <c r="F38" t="n">
-        <v>239.1678783437569</v>
+        <v>249.2309652863105</v>
       </c>
       <c r="G38" t="n">
-        <v>246.9640893646632</v>
+        <v>256.9265099149972</v>
       </c>
       <c r="H38" t="n">
-        <v>165.3097237110945</v>
+        <v>174.341860964329</v>
       </c>
       <c r="I38" t="n">
-        <v>18.46111296102723</v>
+        <v>24.6432588175341</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>26.94482204030226</v>
+        <v>34.71397357015138</v>
       </c>
       <c r="T38" t="n">
-        <v>52.62775267203219</v>
+        <v>62.25017248264447</v>
       </c>
       <c r="U38" t="n">
-        <v>83.58704704968054</v>
+        <v>93.64208068085659</v>
       </c>
       <c r="V38" t="n">
-        <v>160.0440910721803</v>
+        <v>170.107178014734</v>
       </c>
       <c r="W38" t="n">
-        <v>181.5328013194584</v>
+        <v>191.5958882620121</v>
       </c>
       <c r="X38" t="n">
-        <v>202.0229332805145</v>
+        <v>212.0860202230681</v>
       </c>
       <c r="Y38" t="n">
-        <v>218.529771258099</v>
+        <v>228.5928582006526</v>
       </c>
     </row>
     <row r="39">
@@ -25469,10 +25469,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>8.888103194466396</v>
       </c>
       <c r="C39" t="n">
-        <v>5.000331590361156</v>
+        <v>15.0634185329148</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -25520,25 +25520,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>6.771755466429482</v>
       </c>
       <c r="T39" t="n">
-        <v>31.09685669190097</v>
+        <v>40.94284492601693</v>
       </c>
       <c r="U39" t="n">
-        <v>58.21102146313504</v>
+        <v>68.27056490119841</v>
       </c>
       <c r="V39" t="n">
-        <v>65.09241975147069</v>
+        <v>75.15550669402433</v>
       </c>
       <c r="W39" t="n">
-        <v>83.98681576296502</v>
+        <v>94.04990270551866</v>
       </c>
       <c r="X39" t="n">
-        <v>38.06481780552289</v>
+        <v>48.12790474807653</v>
       </c>
       <c r="Y39" t="n">
-        <v>37.97452837934978</v>
+        <v>48.03761532190342</v>
       </c>
     </row>
     <row r="40">
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>12.12381278398271</v>
+        <v>22.18689972653635</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>9.60174064322689</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25563,10 +25563,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>10.01793146456822</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1.666163371649446</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>4.901702278409715</v>
       </c>
       <c r="S40" t="n">
-        <v>51.37978947277657</v>
+        <v>60.65593958534834</v>
       </c>
       <c r="T40" t="n">
-        <v>59.02904365362721</v>
+        <v>68.8991935538796</v>
       </c>
       <c r="U40" t="n">
-        <v>118.5954358515997</v>
+        <v>128.6560597680814</v>
       </c>
       <c r="V40" t="n">
-        <v>84.42947592587342</v>
+        <v>94.49256286842706</v>
       </c>
       <c r="W40" t="n">
-        <v>118.8148309386364</v>
+        <v>128.8779178811901</v>
       </c>
       <c r="X40" t="n">
-        <v>58.00148799108257</v>
+        <v>68.06457493363621</v>
       </c>
       <c r="Y40" t="n">
-        <v>50.87648595414021</v>
+        <v>60.93957289669385</v>
       </c>
     </row>
     <row r="41">
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>303.8263843798759</v>
+        <v>306.8060945685609</v>
       </c>
       <c r="C41" t="n">
-        <v>286.3654344874029</v>
+        <v>289.3451446760879</v>
       </c>
       <c r="D41" t="n">
-        <v>275.7755843370783</v>
+        <v>278.7552945257632</v>
       </c>
       <c r="E41" t="n">
-        <v>303.0229127886571</v>
+        <v>306.0026229773421</v>
       </c>
       <c r="F41" t="n">
-        <v>327.9685884581068</v>
+        <v>330.9482986467917</v>
       </c>
       <c r="G41" t="n">
-        <v>335.764799479013</v>
+        <v>338.6438432754784</v>
       </c>
       <c r="H41" t="n">
-        <v>254.1104338254444</v>
+        <v>256.0591943248103</v>
       </c>
       <c r="I41" t="n">
-        <v>107.2618230753771</v>
+        <v>106.3605921780154</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>31.35722408722867</v>
+        <v>28.01344901564825</v>
       </c>
       <c r="S41" t="n">
-        <v>115.7455321546521</v>
+        <v>116.4313069306326</v>
       </c>
       <c r="T41" t="n">
-        <v>141.4284627863821</v>
+        <v>143.9675058431257</v>
       </c>
       <c r="U41" t="n">
-        <v>172.3877571640304</v>
+        <v>175.3594140413379</v>
       </c>
       <c r="V41" t="n">
-        <v>248.8448011865302</v>
+        <v>251.8245113752152</v>
       </c>
       <c r="W41" t="n">
-        <v>270.3335114338083</v>
+        <v>273.3132216224933</v>
       </c>
       <c r="X41" t="n">
-        <v>290.8236433948643</v>
+        <v>293.8033535835493</v>
       </c>
       <c r="Y41" t="n">
-        <v>307.3304813724489</v>
+        <v>310.3101915611339</v>
       </c>
     </row>
     <row r="42">
@@ -25706,25 +25706,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>87.62572636626264</v>
+        <v>90.60543655494766</v>
       </c>
       <c r="C42" t="n">
-        <v>93.80104170471104</v>
+        <v>96.78075189339606</v>
       </c>
       <c r="D42" t="n">
-        <v>68.53760828103405</v>
+        <v>71.51731846971907</v>
       </c>
       <c r="E42" t="n">
-        <v>78.73762317179624</v>
+        <v>81.71733336048126</v>
       </c>
       <c r="F42" t="n">
-        <v>66.16175510977918</v>
+        <v>69.1414652984642</v>
       </c>
       <c r="G42" t="n">
-        <v>58.09872293735104</v>
+        <v>61.02457185778383</v>
       </c>
       <c r="H42" t="n">
-        <v>30.07002227374571</v>
+        <v>32.52954600325795</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25754,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.3058954893873675</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>86.50982807264749</v>
+        <v>88.48908882691074</v>
       </c>
       <c r="T42" t="n">
-        <v>119.8975668062509</v>
+        <v>122.6601782864982</v>
       </c>
       <c r="U42" t="n">
-        <v>147.0117315774849</v>
+        <v>149.9878982616797</v>
       </c>
       <c r="V42" t="n">
-        <v>153.8931298658206</v>
+        <v>156.8728400545056</v>
       </c>
       <c r="W42" t="n">
-        <v>172.7875258773149</v>
+        <v>175.7672360659999</v>
       </c>
       <c r="X42" t="n">
-        <v>126.8655279198728</v>
+        <v>129.8452381085578</v>
       </c>
       <c r="Y42" t="n">
-        <v>126.7752384936997</v>
+        <v>129.7549486823847</v>
       </c>
     </row>
     <row r="43">
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>100.9245228983326</v>
+        <v>103.9042330870176</v>
       </c>
       <c r="C43" t="n">
-        <v>88.33936381502313</v>
+        <v>91.31907400370815</v>
       </c>
       <c r="D43" t="n">
-        <v>69.70801573460766</v>
+        <v>72.68772592329267</v>
       </c>
       <c r="E43" t="n">
-        <v>67.52650536296447</v>
+        <v>70.50621555164949</v>
       </c>
       <c r="F43" t="n">
-        <v>66.51359073932655</v>
+        <v>69.49330092801156</v>
       </c>
       <c r="G43" t="n">
-        <v>88.80071011434988</v>
+        <v>91.73526482504948</v>
       </c>
       <c r="H43" t="n">
-        <v>80.80525979317041</v>
+        <v>83.38349673213071</v>
       </c>
       <c r="I43" t="n">
-        <v>68.03809068594593</v>
+        <v>69.65985250030644</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>85.66967994216755</v>
+        <v>86.61903563889098</v>
       </c>
       <c r="S43" t="n">
-        <v>140.1804995871265</v>
+        <v>142.3732729458296</v>
       </c>
       <c r="T43" t="n">
-        <v>147.8297537679771</v>
+        <v>150.6165269143609</v>
       </c>
       <c r="U43" t="n">
-        <v>207.3961459659496</v>
+        <v>210.3733931285627</v>
       </c>
       <c r="V43" t="n">
-        <v>173.2301860402233</v>
+        <v>176.2098962289083</v>
       </c>
       <c r="W43" t="n">
-        <v>207.6155410529863</v>
+        <v>210.5952512416713</v>
       </c>
       <c r="X43" t="n">
-        <v>146.8021981054325</v>
+        <v>149.7819082941175</v>
       </c>
       <c r="Y43" t="n">
-        <v>139.6771960684901</v>
+        <v>142.6569062571751</v>
       </c>
     </row>
     <row r="44">
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>303.8263843798759</v>
+        <v>306.8060945685609</v>
       </c>
       <c r="C44" t="n">
-        <v>286.3654344874029</v>
+        <v>289.3451446760879</v>
       </c>
       <c r="D44" t="n">
-        <v>275.7755843370783</v>
+        <v>278.7552945257632</v>
       </c>
       <c r="E44" t="n">
-        <v>303.0229127886571</v>
+        <v>306.0026229773421</v>
       </c>
       <c r="F44" t="n">
-        <v>327.9685884581068</v>
+        <v>330.9482986467917</v>
       </c>
       <c r="G44" t="n">
-        <v>335.764799479013</v>
+        <v>338.6438432754784</v>
       </c>
       <c r="H44" t="n">
-        <v>254.1104338254444</v>
+        <v>256.0591943248103</v>
       </c>
       <c r="I44" t="n">
-        <v>107.2618230753771</v>
+        <v>106.3605921780154</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>31.35722408722867</v>
+        <v>28.01344901564825</v>
       </c>
       <c r="S44" t="n">
-        <v>115.7455321546521</v>
+        <v>116.4313069306326</v>
       </c>
       <c r="T44" t="n">
-        <v>141.4284627863821</v>
+        <v>143.9675058431257</v>
       </c>
       <c r="U44" t="n">
-        <v>172.3877571640304</v>
+        <v>175.3594140413379</v>
       </c>
       <c r="V44" t="n">
-        <v>248.8448011865302</v>
+        <v>251.8245113752152</v>
       </c>
       <c r="W44" t="n">
-        <v>270.3335114338083</v>
+        <v>273.3132216224933</v>
       </c>
       <c r="X44" t="n">
-        <v>290.8236433948643</v>
+        <v>293.8033535835493</v>
       </c>
       <c r="Y44" t="n">
-        <v>307.3304813724489</v>
+        <v>310.3101915611339</v>
       </c>
     </row>
     <row r="45">
@@ -25943,25 +25943,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>87.62572636626264</v>
+        <v>90.60543655494766</v>
       </c>
       <c r="C45" t="n">
-        <v>93.80104170471104</v>
+        <v>96.78075189339606</v>
       </c>
       <c r="D45" t="n">
-        <v>68.53760828103405</v>
+        <v>71.51731846971907</v>
       </c>
       <c r="E45" t="n">
-        <v>78.73762317179624</v>
+        <v>81.71733336048126</v>
       </c>
       <c r="F45" t="n">
-        <v>66.16175510977918</v>
+        <v>69.1414652984642</v>
       </c>
       <c r="G45" t="n">
-        <v>58.09872293735104</v>
+        <v>61.02457185778383</v>
       </c>
       <c r="H45" t="n">
-        <v>30.07002227374571</v>
+        <v>32.52954600325795</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25991,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.3058954893873675</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>86.50982807264749</v>
+        <v>88.48908882691074</v>
       </c>
       <c r="T45" t="n">
-        <v>119.8975668062509</v>
+        <v>122.6601782864982</v>
       </c>
       <c r="U45" t="n">
-        <v>147.0117315774849</v>
+        <v>149.9878982616797</v>
       </c>
       <c r="V45" t="n">
-        <v>153.8931298658206</v>
+        <v>156.8728400545056</v>
       </c>
       <c r="W45" t="n">
-        <v>172.7875258773149</v>
+        <v>175.7672360659999</v>
       </c>
       <c r="X45" t="n">
-        <v>126.8655279198728</v>
+        <v>129.8452381085578</v>
       </c>
       <c r="Y45" t="n">
-        <v>126.7752384936997</v>
+        <v>129.7549486823847</v>
       </c>
     </row>
     <row r="46">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>100.9245228983326</v>
+        <v>103.9042330870176</v>
       </c>
       <c r="C46" t="n">
-        <v>88.33936381502313</v>
+        <v>91.31907400370815</v>
       </c>
       <c r="D46" t="n">
-        <v>69.70801573460766</v>
+        <v>72.68772592329267</v>
       </c>
       <c r="E46" t="n">
-        <v>67.52650536296447</v>
+        <v>70.50621555164949</v>
       </c>
       <c r="F46" t="n">
-        <v>66.51359073932655</v>
+        <v>69.49330092801156</v>
       </c>
       <c r="G46" t="n">
-        <v>88.80071011434988</v>
+        <v>91.73526482504948</v>
       </c>
       <c r="H46" t="n">
-        <v>80.80525979317041</v>
+        <v>83.38349673213071</v>
       </c>
       <c r="I46" t="n">
-        <v>68.03809068594593</v>
+        <v>69.65985250030644</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>85.66967994216755</v>
+        <v>86.61903563889098</v>
       </c>
       <c r="S46" t="n">
-        <v>140.1804995871265</v>
+        <v>142.3732729458296</v>
       </c>
       <c r="T46" t="n">
-        <v>147.8297537679771</v>
+        <v>150.6165269143609</v>
       </c>
       <c r="U46" t="n">
-        <v>207.3961459659496</v>
+        <v>210.3733931285627</v>
       </c>
       <c r="V46" t="n">
-        <v>173.2301860402233</v>
+        <v>176.2098962289083</v>
       </c>
       <c r="W46" t="n">
-        <v>207.6155410529863</v>
+        <v>210.5952512416713</v>
       </c>
       <c r="X46" t="n">
-        <v>146.8021981054325</v>
+        <v>149.7819082941175</v>
       </c>
       <c r="Y46" t="n">
-        <v>139.6771960684901</v>
+        <v>142.6569062571751</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>496362.3961774737</v>
+        <v>461953.007922137</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>496362.3961774737</v>
+        <v>461953.007922137</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>518042.0433343979</v>
+        <v>491059.0456393978</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>518042.043334398</v>
+        <v>491059.0456393978</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>518042.043334398</v>
+        <v>491059.0456393978</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>449787.2257779492</v>
+        <v>432905.5330770852</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>449787.2257779492</v>
+        <v>432905.5330770852</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>518948.0047918232</v>
+        <v>501647.2149732942</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>518948.0047918232</v>
+        <v>501647.2149732941</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>518948.0047918232</v>
+        <v>501647.2149732942</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>401994.1380599765</v>
+        <v>390155.8893412452</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>401994.1380599765</v>
+        <v>390155.8893412451</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>757830.6133132606</v>
+        <v>757830.61331326</v>
       </c>
       <c r="C2" t="n">
-        <v>757830.6133132605</v>
+        <v>757830.6133132604</v>
       </c>
       <c r="D2" t="n">
-        <v>757830.6133132603</v>
+        <v>757830.6133132604</v>
       </c>
       <c r="E2" t="n">
-        <v>517902.974688887</v>
+        <v>479856.3168138924</v>
       </c>
       <c r="F2" t="n">
-        <v>517902.9746888868</v>
+        <v>479856.3168138926</v>
       </c>
       <c r="G2" t="n">
-        <v>555409.5044893652</v>
+        <v>523013.1148365914</v>
       </c>
       <c r="H2" t="n">
-        <v>555409.5044893655</v>
+        <v>523013.1148365916</v>
       </c>
       <c r="I2" t="n">
-        <v>555409.5044893652</v>
+        <v>523013.1148365915</v>
       </c>
       <c r="J2" t="n">
-        <v>449671.3349164658</v>
+        <v>437768.0094864758</v>
       </c>
       <c r="K2" t="n">
-        <v>449671.3349164657</v>
+        <v>437768.0094864757</v>
       </c>
       <c r="L2" t="n">
-        <v>557280.3998323703</v>
+        <v>541022.2341352191</v>
       </c>
       <c r="M2" t="n">
-        <v>557280.3998323703</v>
+        <v>541022.2341352194</v>
       </c>
       <c r="N2" t="n">
-        <v>557280.3998323703</v>
+        <v>541022.2341352192</v>
       </c>
       <c r="O2" t="n">
-        <v>384412.7926002163</v>
+        <v>379433.9237942507</v>
       </c>
       <c r="P2" t="n">
-        <v>384412.7926002165</v>
+        <v>379433.9237942508</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>242054.7392583575</v>
+        <v>246294.1573705106</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>17171.17700518677</v>
+        <v>17779.09020006932</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>71040.5680914799</v>
+        <v>65373.86668838501</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>63125.96582688372</v>
+        <v>60742.19767593574</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>467615.9599317312</v>
       </c>
       <c r="E4" t="n">
-        <v>266555.9389178277</v>
+        <v>234323.7517727113</v>
       </c>
       <c r="F4" t="n">
-        <v>266555.9389178277</v>
+        <v>234323.7517727113</v>
       </c>
       <c r="G4" t="n">
-        <v>289125.6179142362</v>
+        <v>260496.1997499383</v>
       </c>
       <c r="H4" t="n">
-        <v>289125.6179142362</v>
+        <v>260496.1997499383</v>
       </c>
       <c r="I4" t="n">
-        <v>289125.6179142362</v>
+        <v>260496.1997499383</v>
       </c>
       <c r="J4" t="n">
-        <v>225149.6608174343</v>
+        <v>208767.0338648031</v>
       </c>
       <c r="K4" t="n">
-        <v>225149.6608174343</v>
+        <v>208767.0338648031</v>
       </c>
       <c r="L4" t="n">
-        <v>290242.8867448379</v>
+        <v>271341.9429416848</v>
       </c>
       <c r="M4" t="n">
-        <v>290242.8867448379</v>
+        <v>271341.9429416849</v>
       </c>
       <c r="N4" t="n">
-        <v>290242.8867448379</v>
+        <v>271341.9429416847</v>
       </c>
       <c r="O4" t="n">
-        <v>185389.3862679505</v>
+        <v>173224.2906453261</v>
       </c>
       <c r="P4" t="n">
-        <v>185389.3862679505</v>
+        <v>173224.2906453261</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>15614.76311741271</v>
+        <v>14492.04947853882</v>
       </c>
       <c r="F5" t="n">
-        <v>15614.76311741271</v>
+        <v>14492.04947853882</v>
       </c>
       <c r="G5" t="n">
-        <v>17419.21771697401</v>
+        <v>16360.38739607585</v>
       </c>
       <c r="H5" t="n">
-        <v>17419.21771697401</v>
+        <v>16360.38739607585</v>
       </c>
       <c r="I5" t="n">
-        <v>17419.21771697401</v>
+        <v>16360.38739607585</v>
       </c>
       <c r="J5" t="n">
-        <v>12688.7809988779</v>
+        <v>12703.06059494157</v>
       </c>
       <c r="K5" t="n">
-        <v>12688.7809988779</v>
+        <v>12703.06059494157</v>
       </c>
       <c r="L5" t="n">
-        <v>17517.99742569196</v>
+        <v>17217.89244792734</v>
       </c>
       <c r="M5" t="n">
-        <v>17517.99742569196</v>
+        <v>17217.89244792734</v>
       </c>
       <c r="N5" t="n">
-        <v>17517.99742569196</v>
+        <v>17217.89244792734</v>
       </c>
       <c r="O5" t="n">
-        <v>10052.61052708868</v>
+        <v>10347.99794964504</v>
       </c>
       <c r="P5" t="n">
-        <v>10052.61052708868</v>
+        <v>10347.99794964504</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>256542.9176028483</v>
+        <v>256582.6398036607</v>
       </c>
       <c r="C6" t="n">
-        <v>256542.9176028481</v>
+        <v>256582.639803661</v>
       </c>
       <c r="D6" t="n">
-        <v>256542.9176028479</v>
+        <v>256582.639803661</v>
       </c>
       <c r="E6" t="n">
-        <v>-12851.13315702383</v>
+        <v>-16009.33726816711</v>
       </c>
       <c r="F6" t="n">
-        <v>229203.6061013335</v>
+        <v>230284.8201023436</v>
       </c>
       <c r="G6" t="n">
-        <v>226178.5152952629</v>
+        <v>227738.3820248651</v>
       </c>
       <c r="H6" t="n">
-        <v>243349.69230045</v>
+        <v>245517.4722249346</v>
       </c>
       <c r="I6" t="n">
-        <v>243349.6923004497</v>
+        <v>245517.4722249345</v>
       </c>
       <c r="J6" t="n">
-        <v>132419.5600841333</v>
+        <v>150054.6006960813</v>
       </c>
       <c r="K6" t="n">
-        <v>203460.1281756132</v>
+        <v>215428.4673844662</v>
       </c>
       <c r="L6" t="n">
-        <v>180929.1380162516</v>
+        <v>191129.81889943</v>
       </c>
       <c r="M6" t="n">
-        <v>244055.1038431354</v>
+        <v>251872.016575366</v>
       </c>
       <c r="N6" t="n">
-        <v>244055.1038431354</v>
+        <v>251872.016575366</v>
       </c>
       <c r="O6" t="n">
-        <v>178834.2864937111</v>
+        <v>194834.5278659547</v>
       </c>
       <c r="P6" t="n">
-        <v>178834.2864937112</v>
+        <v>194834.5278659547</v>
       </c>
     </row>
   </sheetData>
@@ -26694,40 +26694,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="F2" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="G2" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="H2" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="I2" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="J2" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="K2" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="L2" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="M2" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="N2" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="O2" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="P2" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
     </row>
     <row r="3">
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>156.8320871886841</v>
+        <v>181.8728522533136</v>
       </c>
       <c r="F3" t="n">
-        <v>156.8320871886841</v>
+        <v>181.8728522533136</v>
       </c>
       <c r="G3" t="n">
-        <v>156.8320871886841</v>
+        <v>181.8728522533136</v>
       </c>
       <c r="H3" t="n">
-        <v>156.8320871886841</v>
+        <v>181.8728522533136</v>
       </c>
       <c r="I3" t="n">
-        <v>156.8320871886841</v>
+        <v>181.8728522533136</v>
       </c>
       <c r="J3" t="n">
-        <v>156.8320871886841</v>
+        <v>181.8728522533136</v>
       </c>
       <c r="K3" t="n">
-        <v>156.8320871886841</v>
+        <v>181.8728522533136</v>
       </c>
       <c r="L3" t="n">
-        <v>156.8320871886841</v>
+        <v>181.8728522533136</v>
       </c>
       <c r="M3" t="n">
-        <v>156.8320871886841</v>
+        <v>181.8728522533136</v>
       </c>
       <c r="N3" t="n">
-        <v>156.8320871886841</v>
+        <v>181.8728522533136</v>
       </c>
       <c r="O3" t="n">
-        <v>156.8320871886841</v>
+        <v>181.8728522533136</v>
       </c>
       <c r="P3" t="n">
-        <v>156.8320871886841</v>
+        <v>181.8728522533136</v>
       </c>
     </row>
     <row r="4">
@@ -26916,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>21.46397125648346</v>
+        <v>22.22386275008665</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26931,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>88.80071011434988</v>
+        <v>81.71733336048126</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>78.90745728360466</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>156.8320871886841</v>
+        <v>181.8728522533136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27153,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>21.46397125648346</v>
+        <v>22.22386275008665</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>88.80071011434988</v>
+        <v>81.71733336048126</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28089,76 +28089,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="C11" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="D11" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="E11" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="F11" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="G11" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="H11" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="I11" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="J11" t="n">
-        <v>127.5346387577191</v>
+        <v>118.9907045510695</v>
       </c>
       <c r="K11" t="n">
-        <v>139.8903350219551</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>136.2718236171098</v>
+        <v>104.3588864243619</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>116.9148067230436</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>123.8692975309836</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>140.5690754423378</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="Q11" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>110.2646813708334</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="S11" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="T11" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="U11" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="V11" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="W11" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="X11" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="Y11" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
     </row>
     <row r="12">
@@ -28168,76 +28168,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="C12" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="D12" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="E12" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="G12" t="n">
-        <v>137.0061802209557</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="H12" t="n">
-        <v>108.9774795573504</v>
+        <v>108.4572930981776</v>
       </c>
       <c r="I12" t="n">
-        <v>77.78218111149837</v>
+        <v>86.0534942435046</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>89.87797468186831</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>74.67150688558309</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>43.01332944396242</v>
       </c>
       <c r="N12" t="n">
-        <v>18.07630388645678</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>49.52023863137366</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>59.27270702371922</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>90.04566567111172</v>
       </c>
       <c r="R12" t="n">
-        <v>79.21335277299207</v>
+        <v>121.3908992800214</v>
       </c>
       <c r="S12" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="T12" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="U12" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="V12" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="W12" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="X12" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="Y12" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
     </row>
     <row r="13">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="C13" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="D13" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="E13" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="F13" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="G13" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="H13" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="I13" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="J13" t="n">
-        <v>73.36437450902693</v>
+        <v>103.8081235381827</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>86.12486274434171</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>87.51539720327906</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>77.49758180982286</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>92.09983178242442</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>98.06183312491675</v>
       </c>
       <c r="Q13" t="n">
-        <v>62.48039808620308</v>
+        <v>124.0422009391955</v>
       </c>
       <c r="R13" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="S13" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="T13" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="U13" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="V13" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="W13" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="X13" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="Y13" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
     </row>
     <row r="14">
@@ -28326,76 +28326,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="C14" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="D14" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="E14" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="F14" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="G14" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="H14" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="I14" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="J14" t="n">
-        <v>127.5346387577191</v>
+        <v>118.9907045510695</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>136.2718236171098</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>61.36316121622328</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>59.89402765501947</v>
+        <v>106.9081429388908</v>
       </c>
       <c r="P14" t="n">
-        <v>140.5690754423378</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="Q14" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="S14" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="T14" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="U14" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="V14" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="W14" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="X14" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="Y14" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
     </row>
     <row r="15">
@@ -28405,76 +28405,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="C15" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="D15" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="E15" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="G15" t="n">
-        <v>137.0061802209557</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="H15" t="n">
-        <v>108.9774795573504</v>
+        <v>108.4572930981776</v>
       </c>
       <c r="I15" t="n">
-        <v>87.9079282600833</v>
+        <v>86.0534942435046</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>89.87797468186831</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>74.67150688558309</v>
       </c>
       <c r="L15" t="n">
-        <v>65.30935641878165</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>43.01332944396242</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>29.59757750060459</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>49.52023863137366</v>
       </c>
       <c r="P15" t="n">
-        <v>69.55784692356674</v>
+        <v>59.27270702371922</v>
       </c>
       <c r="Q15" t="n">
-        <v>96.92100931678129</v>
+        <v>90.04566567111172</v>
       </c>
       <c r="R15" t="n">
-        <v>124.7350225843129</v>
+        <v>121.3908992800214</v>
       </c>
       <c r="S15" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="T15" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="U15" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="V15" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="W15" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="X15" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="Y15" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
     </row>
     <row r="16">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="C16" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="D16" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="E16" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="F16" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="G16" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="H16" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="I16" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="J16" t="n">
-        <v>107.0006158317503</v>
+        <v>103.8081235381827</v>
       </c>
       <c r="K16" t="n">
-        <v>96.15565039559468</v>
+        <v>90.90940486238216</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>86.12486274434171</v>
       </c>
       <c r="M16" t="n">
-        <v>94.59372362966276</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>84.40760145462464</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>98.48235334348769</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>127.8233564639545</v>
+        <v>124.0422009391955</v>
       </c>
       <c r="R16" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="S16" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="T16" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="U16" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="V16" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="W16" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="X16" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="Y16" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
     </row>
     <row r="17">
@@ -28563,43 +28563,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="C17" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="D17" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E17" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="F17" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="G17" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="H17" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="I17" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>139.8903350219551</v>
+        <v>127.0851924326491</v>
       </c>
       <c r="L17" t="n">
-        <v>136.2718236171098</v>
+        <v>120.3859119269127</v>
       </c>
       <c r="M17" t="n">
-        <v>119.6393297918153</v>
+        <v>60.29856325316456</v>
       </c>
       <c r="N17" t="n">
-        <v>116.9148067230436</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -28608,31 +28608,31 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>104.0615339179439</v>
+        <v>143.3500236482384</v>
       </c>
       <c r="R17" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="S17" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="T17" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="U17" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="V17" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="W17" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="X17" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="Y17" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
     </row>
     <row r="18">
@@ -28642,76 +28642,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="C18" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0061802209557</v>
+        <v>136.9523189527035</v>
       </c>
       <c r="H18" t="n">
-        <v>108.9774795573504</v>
+        <v>108.4572930981776</v>
       </c>
       <c r="I18" t="n">
-        <v>87.9079282600833</v>
+        <v>86.0534942435046</v>
       </c>
       <c r="J18" t="n">
-        <v>94.96668336353984</v>
+        <v>89.87797468186831</v>
       </c>
       <c r="K18" t="n">
-        <v>83.36892054015348</v>
+        <v>74.67150688558309</v>
       </c>
       <c r="L18" t="n">
-        <v>65.30935641878165</v>
+        <v>53.61461043270162</v>
       </c>
       <c r="M18" t="n">
-        <v>56.66054640418547</v>
+        <v>43.01332944396242</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>29.59757750060459</v>
       </c>
       <c r="O18" t="n">
-        <v>62.33520450364681</v>
+        <v>49.52023863137366</v>
       </c>
       <c r="P18" t="n">
-        <v>69.55784692356674</v>
+        <v>59.27270702371922</v>
       </c>
       <c r="Q18" t="n">
-        <v>96.92100931678129</v>
+        <v>90.04566567111172</v>
       </c>
       <c r="R18" t="n">
-        <v>124.7350225843129</v>
+        <v>121.3908992800214</v>
       </c>
       <c r="S18" t="n">
-        <v>165.4172853562522</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="T18" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="U18" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="V18" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="W18" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="X18" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="Y18" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
     </row>
     <row r="19">
@@ -28721,13 +28721,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="C19" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -28736,61 +28736,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="H19" t="n">
-        <v>159.7127170767751</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="I19" t="n">
-        <v>146.9455479695506</v>
+        <v>145.5875995952261</v>
       </c>
       <c r="J19" t="n">
-        <v>107.0006158317503</v>
+        <v>103.8081235381827</v>
       </c>
       <c r="K19" t="n">
-        <v>96.15565039559468</v>
+        <v>90.90940486238216</v>
       </c>
       <c r="L19" t="n">
-        <v>92.83825080773434</v>
+        <v>86.12486274434171</v>
       </c>
       <c r="M19" t="n">
-        <v>94.59372362966276</v>
+        <v>87.51539720327906</v>
       </c>
       <c r="N19" t="n">
-        <v>84.40760145462464</v>
+        <v>77.49758180982286</v>
       </c>
       <c r="O19" t="n">
-        <v>98.48235334348769</v>
+        <v>92.09983178242442</v>
       </c>
       <c r="P19" t="n">
-        <v>103.5231829350779</v>
+        <v>98.06183312491675</v>
       </c>
       <c r="Q19" t="n">
-        <v>127.8233564639545</v>
+        <v>124.0422009391955</v>
       </c>
       <c r="R19" t="n">
-        <v>164.5771372257722</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="S19" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="T19" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="U19" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="V19" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="W19" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="X19" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="Y19" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
     </row>
     <row r="20">
@@ -28800,76 +28800,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="C20" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="D20" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E20" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="F20" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="G20" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="H20" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="I20" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="J20" t="n">
-        <v>127.5346387577191</v>
+        <v>118.9907045510695</v>
       </c>
       <c r="K20" t="n">
-        <v>139.8903350219551</v>
+        <v>127.0851924326491</v>
       </c>
       <c r="L20" t="n">
-        <v>136.2718236171098</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>119.6393297918153</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>116.9148067230436</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>123.8692975309836</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>140.5690754423378</v>
+        <v>61.69377062900745</v>
       </c>
       <c r="Q20" t="n">
-        <v>154.2208615110444</v>
+        <v>143.3500236482384</v>
       </c>
       <c r="R20" t="n">
-        <v>110.2646813708334</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="S20" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="T20" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="U20" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="V20" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="W20" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="X20" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="Y20" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
     </row>
     <row r="21">
@@ -28879,76 +28879,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="C21" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0061802209557</v>
+        <v>136.9523189527035</v>
       </c>
       <c r="H21" t="n">
-        <v>108.9774795573504</v>
+        <v>108.4572930981776</v>
       </c>
       <c r="I21" t="n">
-        <v>77.78218111149837</v>
+        <v>86.0534942435046</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>89.87797468186831</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>74.67150688558309</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>53.61461043270162</v>
       </c>
       <c r="M21" t="n">
-        <v>56.66054640418547</v>
+        <v>43.01332944396242</v>
       </c>
       <c r="N21" t="n">
-        <v>39.92691138905371</v>
+        <v>29.59757750060459</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>49.52023863137366</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>59.27270702371922</v>
       </c>
       <c r="Q21" t="n">
-        <v>96.92100931678129</v>
+        <v>90.04566567111172</v>
       </c>
       <c r="R21" t="n">
-        <v>124.7350225843129</v>
+        <v>121.3908992800214</v>
       </c>
       <c r="S21" t="n">
-        <v>165.4172853562522</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="T21" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="U21" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="V21" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="W21" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="X21" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="Y21" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
     </row>
     <row r="22">
@@ -28958,13 +28958,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="C22" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -28973,61 +28973,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="H22" t="n">
-        <v>159.7127170767751</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="I22" t="n">
-        <v>146.9455479695506</v>
+        <v>145.5875995952261</v>
       </c>
       <c r="J22" t="n">
-        <v>73.36437450902693</v>
+        <v>103.8081235381827</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>90.90940486238216</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>86.12486274434171</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>87.51539720327906</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>77.49758180982286</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>92.09983178242442</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>98.06183312491675</v>
       </c>
       <c r="Q22" t="n">
-        <v>62.48039808620308</v>
+        <v>124.0422009391955</v>
       </c>
       <c r="R22" t="n">
-        <v>164.5771372257722</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="S22" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="T22" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="U22" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="V22" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="W22" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="X22" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="Y22" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
     </row>
     <row r="23">
@@ -29037,76 +29037,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="C23" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="D23" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E23" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="F23" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="G23" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="H23" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="I23" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>139.8903350219551</v>
+        <v>127.0851924326491</v>
       </c>
       <c r="L23" t="n">
-        <v>136.2718236171098</v>
+        <v>120.3859119269127</v>
       </c>
       <c r="M23" t="n">
-        <v>119.6393297918153</v>
+        <v>101.9631921489827</v>
       </c>
       <c r="N23" t="n">
-        <v>116.9148067230436</v>
+        <v>98.95265069331703</v>
       </c>
       <c r="O23" t="n">
-        <v>123.8692975309836</v>
+        <v>106.9081429388908</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>126.0931224081668</v>
       </c>
       <c r="Q23" t="n">
-        <v>40.62834273386873</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="S23" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="T23" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="U23" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="V23" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="W23" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="X23" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="Y23" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
     </row>
     <row r="24">
@@ -29116,76 +29116,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="C24" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.0061802209557</v>
+        <v>136.9523189527035</v>
       </c>
       <c r="H24" t="n">
-        <v>108.9774795573504</v>
+        <v>108.4572930981776</v>
       </c>
       <c r="I24" t="n">
-        <v>87.9079282600833</v>
+        <v>86.0534942435046</v>
       </c>
       <c r="J24" t="n">
-        <v>94.96668336353984</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>83.36892054015348</v>
+        <v>74.67150688558309</v>
       </c>
       <c r="L24" t="n">
-        <v>65.30935641878165</v>
+        <v>53.61461043270162</v>
       </c>
       <c r="M24" t="n">
-        <v>56.66054640418547</v>
+        <v>43.01332944396242</v>
       </c>
       <c r="N24" t="n">
-        <v>43.6059956852033</v>
+        <v>29.59757750060459</v>
       </c>
       <c r="O24" t="n">
-        <v>62.33520450364681</v>
+        <v>49.52023863137366</v>
       </c>
       <c r="P24" t="n">
-        <v>69.55784692356674</v>
+        <v>59.27270702371922</v>
       </c>
       <c r="Q24" t="n">
-        <v>96.92100931678129</v>
+        <v>0.1274817743612385</v>
       </c>
       <c r="R24" t="n">
-        <v>124.7350225843129</v>
+        <v>121.3908992800214</v>
       </c>
       <c r="S24" t="n">
-        <v>165.4172853562522</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="T24" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="U24" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="V24" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="W24" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="X24" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="Y24" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
     </row>
     <row r="25">
@@ -29195,13 +29195,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="C25" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -29210,22 +29210,22 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="H25" t="n">
-        <v>159.7127170767751</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="I25" t="n">
-        <v>146.9455479695506</v>
+        <v>145.5875995952261</v>
       </c>
       <c r="J25" t="n">
-        <v>107.0006158317503</v>
+        <v>103.8081235381827</v>
       </c>
       <c r="K25" t="n">
-        <v>96.15565039559468</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>92.83825080773434</v>
+        <v>86.12486274434171</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -29237,34 +29237,34 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>103.5231829350779</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>127.8233564639545</v>
+        <v>124.0422009391955</v>
       </c>
       <c r="R25" t="n">
-        <v>164.5771372257722</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="S25" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="T25" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="U25" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="V25" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="W25" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="X25" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="Y25" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
     </row>
     <row r="26">
@@ -29274,76 +29274,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="C26" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="D26" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="E26" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="F26" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="G26" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="H26" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="I26" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>110.2646813708334</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>14.85869107545488</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="R26" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="S26" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="T26" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="U26" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="V26" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="W26" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="X26" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="Y26" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
     </row>
     <row r="27">
@@ -29353,76 +29353,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="C27" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="D27" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="E27" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="F27" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="G27" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="H27" t="n">
-        <v>108.9774795573504</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="I27" t="n">
-        <v>77.78218111149837</v>
+        <v>86.0534942435046</v>
       </c>
       <c r="J27" t="n">
-        <v>94.96668336353984</v>
+        <v>63.14526791972152</v>
       </c>
       <c r="K27" t="n">
-        <v>83.36892054015348</v>
+        <v>74.67150688558309</v>
       </c>
       <c r="L27" t="n">
-        <v>65.30935641878165</v>
+        <v>53.61461043270162</v>
       </c>
       <c r="M27" t="n">
-        <v>56.66054640418547</v>
+        <v>43.01332944396242</v>
       </c>
       <c r="N27" t="n">
-        <v>43.6059956852033</v>
+        <v>29.59757750060459</v>
       </c>
       <c r="O27" t="n">
-        <v>62.33520450364681</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>69.55784692356674</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>96.92100931678129</v>
+        <v>90.04566567111172</v>
       </c>
       <c r="R27" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="S27" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="T27" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="U27" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="V27" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="W27" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="X27" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="Y27" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
     </row>
     <row r="28">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="C28" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="D28" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="E28" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="F28" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="G28" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="H28" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="I28" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="J28" t="n">
-        <v>107.0006158317503</v>
+        <v>103.8081235381827</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>90.90940486238216</v>
       </c>
       <c r="L28" t="n">
-        <v>92.83825080773434</v>
+        <v>86.12486274434171</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>87.51539720327906</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>77.49758180982286</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>92.09983178242442</v>
       </c>
       <c r="P28" t="n">
-        <v>103.5231829350779</v>
+        <v>98.06183312491675</v>
       </c>
       <c r="Q28" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="R28" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="S28" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="T28" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="U28" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="V28" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="W28" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="X28" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="Y28" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
     </row>
     <row r="29">
@@ -29511,76 +29511,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="C29" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="D29" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="E29" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="F29" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="G29" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="H29" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="I29" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="J29" t="n">
-        <v>110.2646813708334</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="L29" t="n">
-        <v>87.45849033592995</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>110.2646813708334</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>110.2646813708334</v>
+        <v>98.95265069331703</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>0.2197519923785931</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="R29" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="S29" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="T29" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="U29" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="V29" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="W29" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="X29" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="Y29" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
     </row>
     <row r="30">
@@ -29590,37 +29590,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="C30" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="D30" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="E30" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="F30" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="G30" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="H30" t="n">
-        <v>108.9774795573504</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="I30" t="n">
-        <v>77.78218111149837</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>89.87797468186831</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>65.30935641878165</v>
+        <v>53.61461043270162</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -29635,31 +29635,31 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>90.04566567111172</v>
       </c>
       <c r="R30" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="S30" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="T30" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="U30" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="V30" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="W30" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="X30" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="Y30" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
     </row>
     <row r="31">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="C31" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="D31" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="E31" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="F31" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="G31" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="H31" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="I31" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="J31" t="n">
-        <v>73.36437450902693</v>
+        <v>103.8081235381827</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>90.90940486238216</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>86.12486274434171</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>87.51539720327906</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>77.49758180982286</v>
       </c>
       <c r="O31" t="n">
-        <v>98.48235334348769</v>
+        <v>92.09983178242442</v>
       </c>
       <c r="P31" t="n">
-        <v>103.5231829350779</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>62.48039808620308</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="R31" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="S31" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="T31" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="U31" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="V31" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="W31" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="X31" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="Y31" t="n">
-        <v>110.2646813708334</v>
+        <v>103.9411961105679</v>
       </c>
     </row>
     <row r="32">
@@ -29748,76 +29748,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="C32" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="D32" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="E32" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F32" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="G32" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="H32" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="I32" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="J32" t="n">
-        <v>127.5346387577191</v>
+        <v>118.9907045510695</v>
       </c>
       <c r="K32" t="n">
-        <v>139.8903350219551</v>
+        <v>127.0851924326491</v>
       </c>
       <c r="L32" t="n">
-        <v>136.2718236171098</v>
+        <v>120.3859119269127</v>
       </c>
       <c r="M32" t="n">
-        <v>119.6393297918153</v>
+        <v>101.9631921489827</v>
       </c>
       <c r="N32" t="n">
-        <v>116.9148067230436</v>
+        <v>98.95265069331703</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>126.0931224081668</v>
       </c>
       <c r="Q32" t="n">
-        <v>154.2208615110444</v>
+        <v>143.3500236482384</v>
       </c>
       <c r="R32" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="S32" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="T32" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="U32" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="V32" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="W32" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="X32" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="Y32" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
     </row>
     <row r="33">
@@ -29827,10 +29827,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="C33" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -29842,61 +29842,61 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.0061802209557</v>
+        <v>136.9523189527035</v>
       </c>
       <c r="H33" t="n">
-        <v>108.9774795573504</v>
+        <v>108.4572930981776</v>
       </c>
       <c r="I33" t="n">
-        <v>87.9079282600833</v>
+        <v>86.0534942435046</v>
       </c>
       <c r="J33" t="n">
-        <v>94.96668336353984</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>83.36892054015348</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>65.30935641878165</v>
+        <v>53.61461043270162</v>
       </c>
       <c r="M33" t="n">
-        <v>56.66054640418547</v>
+        <v>43.01332944396242</v>
       </c>
       <c r="N33" t="n">
-        <v>16.82015934782289</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>62.33520450364681</v>
+        <v>49.52023863137366</v>
       </c>
       <c r="P33" t="n">
-        <v>69.55784692356674</v>
+        <v>8.075313197218593</v>
       </c>
       <c r="Q33" t="n">
-        <v>96.92100931678129</v>
+        <v>90.04566567111172</v>
       </c>
       <c r="R33" t="n">
-        <v>124.7350225843129</v>
+        <v>121.3908992800214</v>
       </c>
       <c r="S33" t="n">
-        <v>165.4172853562522</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="T33" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="U33" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="V33" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="W33" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="X33" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="Y33" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
     </row>
     <row r="34">
@@ -29906,10 +29906,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -29921,16 +29921,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="H34" t="n">
-        <v>159.7127170767751</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="I34" t="n">
-        <v>146.9455479695506</v>
+        <v>145.5875995952261</v>
       </c>
       <c r="J34" t="n">
-        <v>107.0006158317503</v>
+        <v>103.8081235381827</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -29948,34 +29948,34 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>98.06183312491675</v>
       </c>
       <c r="Q34" t="n">
-        <v>127.8233564639545</v>
+        <v>58.69924256144404</v>
       </c>
       <c r="R34" t="n">
-        <v>164.5771372257722</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="S34" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="T34" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="U34" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="V34" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="W34" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="X34" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="Y34" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
     </row>
     <row r="35">
@@ -29985,76 +29985,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="C35" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="D35" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="E35" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F35" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="G35" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="H35" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="I35" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>139.8903350219551</v>
+        <v>127.0851924326491</v>
       </c>
       <c r="L35" t="n">
-        <v>136.2718236171098</v>
+        <v>120.3859119269127</v>
       </c>
       <c r="M35" t="n">
-        <v>35.12241789450194</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>116.9148067230436</v>
+        <v>98.95265069331703</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>106.9081429388908</v>
       </c>
       <c r="P35" t="n">
-        <v>140.5690754423378</v>
+        <v>126.0931224081668</v>
       </c>
       <c r="Q35" t="n">
-        <v>154.2208615110444</v>
+        <v>143.3500236482384</v>
       </c>
       <c r="R35" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="S35" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="T35" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="U35" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="V35" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="W35" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="X35" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="Y35" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
     </row>
     <row r="36">
@@ -30064,10 +30064,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="C36" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -30079,61 +30079,61 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.0061802209557</v>
+        <v>136.9523189527035</v>
       </c>
       <c r="H36" t="n">
-        <v>108.9774795573504</v>
+        <v>108.4572930981776</v>
       </c>
       <c r="I36" t="n">
-        <v>87.9079282600833</v>
+        <v>86.0534942435046</v>
       </c>
       <c r="J36" t="n">
-        <v>94.96668336353984</v>
+        <v>89.87797468186831</v>
       </c>
       <c r="K36" t="n">
-        <v>83.36892054015348</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>65.30935641878165</v>
+        <v>53.61461043270162</v>
       </c>
       <c r="M36" t="n">
-        <v>56.66054640418547</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>40.00844973968714</v>
       </c>
       <c r="P36" t="n">
-        <v>69.55784692356674</v>
+        <v>59.27270702371922</v>
       </c>
       <c r="Q36" t="n">
-        <v>96.92100931678129</v>
+        <v>90.04566567111172</v>
       </c>
       <c r="R36" t="n">
-        <v>124.7350225843129</v>
+        <v>121.3908992800214</v>
       </c>
       <c r="S36" t="n">
-        <v>165.4172853562522</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="T36" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="U36" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="V36" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="W36" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="X36" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="Y36" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
     </row>
     <row r="37">
@@ -30143,10 +30143,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -30158,61 +30158,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="H37" t="n">
-        <v>159.7127170767751</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="I37" t="n">
-        <v>146.9455479695506</v>
+        <v>145.5875995952261</v>
       </c>
       <c r="J37" t="n">
-        <v>107.0006158317503</v>
+        <v>103.8081235381827</v>
       </c>
       <c r="K37" t="n">
-        <v>96.15565039559468</v>
+        <v>90.90940486238216</v>
       </c>
       <c r="L37" t="n">
-        <v>92.83825080773434</v>
+        <v>86.12486274434171</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>84.40760145462464</v>
+        <v>77.49758180982286</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>103.5231829350779</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>127.8233564639545</v>
+        <v>124.0422009391955</v>
       </c>
       <c r="R37" t="n">
-        <v>164.5771372257722</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="S37" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="T37" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="U37" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="V37" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="W37" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="X37" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="Y37" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
     </row>
     <row r="38">
@@ -30222,76 +30222,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="C38" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="D38" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="E38" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F38" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="G38" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="H38" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="I38" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="J38" t="n">
-        <v>127.5346387577191</v>
+        <v>118.9907045510695</v>
       </c>
       <c r="K38" t="n">
-        <v>139.8903350219551</v>
+        <v>127.0851924326491</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>120.3859119269127</v>
       </c>
       <c r="M38" t="n">
-        <v>119.6393297918153</v>
+        <v>101.9631921489827</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>98.95265069331703</v>
       </c>
       <c r="O38" t="n">
-        <v>123.8692975309836</v>
+        <v>106.9081429388908</v>
       </c>
       <c r="P38" t="n">
-        <v>140.5690754423378</v>
+        <v>46.05617282068066</v>
       </c>
       <c r="Q38" t="n">
-        <v>154.2208615110444</v>
+        <v>143.3500236482384</v>
       </c>
       <c r="R38" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="S38" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="T38" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="U38" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="V38" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="W38" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="X38" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="Y38" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
     </row>
     <row r="39">
@@ -30301,10 +30301,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="C39" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -30316,19 +30316,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.0061802209557</v>
+        <v>136.9523189527035</v>
       </c>
       <c r="H39" t="n">
-        <v>108.9774795573504</v>
+        <v>108.4572930981776</v>
       </c>
       <c r="I39" t="n">
-        <v>87.9079282600833</v>
+        <v>86.0534942435046</v>
       </c>
       <c r="J39" t="n">
-        <v>94.96668336353984</v>
+        <v>89.87797468186831</v>
       </c>
       <c r="K39" t="n">
-        <v>83.36892054015348</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -30346,31 +30346,31 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>96.92100931678129</v>
+        <v>90.04566567111172</v>
       </c>
       <c r="R39" t="n">
-        <v>124.7350225843129</v>
+        <v>121.3908992800214</v>
       </c>
       <c r="S39" t="n">
-        <v>165.4172853562522</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="T39" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="U39" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="V39" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="W39" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="X39" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="Y39" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
     </row>
     <row r="40">
@@ -30380,10 +30380,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -30395,61 +30395,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="H40" t="n">
-        <v>159.7127170767751</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="I40" t="n">
-        <v>146.9455479695506</v>
+        <v>145.5875995952261</v>
       </c>
       <c r="J40" t="n">
-        <v>107.0006158317503</v>
+        <v>70.17188221545933</v>
       </c>
       <c r="K40" t="n">
-        <v>96.15565039559468</v>
+        <v>90.90940486238216</v>
       </c>
       <c r="L40" t="n">
-        <v>92.83825080773434</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>49.88911680790431</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>98.48235334348769</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>103.5231829350779</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>127.8233564639545</v>
+        <v>124.0422009391955</v>
       </c>
       <c r="R40" t="n">
-        <v>164.5771372257722</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="S40" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="T40" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="U40" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="V40" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="W40" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="X40" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="Y40" t="n">
-        <v>167.7081673979546</v>
+        <v>157.6450804554009</v>
       </c>
     </row>
     <row r="41">
@@ -30459,34 +30459,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="C41" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="D41" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="E41" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="F41" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="G41" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="H41" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="I41" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="J41" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="K41" t="n">
-        <v>78.9074572836047</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -30501,34 +30501,34 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="Q41" t="n">
-        <v>78.9074572836047</v>
+        <v>48.26654014324109</v>
       </c>
       <c r="R41" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="S41" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="T41" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="U41" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="V41" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="W41" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="X41" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="Y41" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
     </row>
     <row r="42">
@@ -30538,76 +30538,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="C42" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="D42" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="E42" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="F42" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="G42" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="H42" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="I42" t="n">
-        <v>77.78218111149837</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>74.67150688558309</v>
       </c>
       <c r="L42" t="n">
-        <v>65.30935641878165</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>43.01332944396242</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>29.59757750060459</v>
       </c>
       <c r="O42" t="n">
-        <v>62.33520450364681</v>
+        <v>49.52023863137366</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>59.27270702371922</v>
       </c>
       <c r="Q42" t="n">
-        <v>75.21581830493227</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="S42" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="T42" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="U42" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="V42" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="W42" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="X42" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="Y42" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
     </row>
     <row r="43">
@@ -30617,31 +30617,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="C43" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="D43" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="E43" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="F43" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="G43" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="H43" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="I43" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="J43" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30650,43 +30650,43 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>78.9074572836047</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>78.9074572836047</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="R43" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="S43" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="T43" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="U43" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="V43" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="W43" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="X43" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="Y43" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="C44" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="D44" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="E44" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="F44" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="G44" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="H44" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="I44" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30732,40 +30732,40 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="O44" t="n">
-        <v>78.9074572836047</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="R44" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="S44" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="T44" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="U44" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="V44" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="W44" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="X44" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="Y44" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
     </row>
     <row r="45">
@@ -30775,76 +30775,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="C45" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="D45" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="E45" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="F45" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="G45" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="H45" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="I45" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="J45" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>74.67150688558309</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>53.61461043270162</v>
       </c>
       <c r="M45" t="n">
-        <v>56.66054640418547</v>
+        <v>43.01332944396242</v>
       </c>
       <c r="N45" t="n">
-        <v>43.6059956852033</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>49.52023863137366</v>
       </c>
       <c r="P45" t="n">
-        <v>36.70489319535976</v>
+        <v>59.27270702371922</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="R45" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="S45" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="T45" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="U45" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="V45" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="W45" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="X45" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="Y45" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
     </row>
     <row r="46">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="C46" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="D46" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="E46" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="F46" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="G46" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="H46" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="I46" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="J46" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="K46" t="n">
-        <v>78.9074572836047</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>78.9074572836047</v>
+        <v>59.44266052227491</v>
       </c>
       <c r="M46" t="n">
-        <v>78.9074572836047</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>78.9074572836047</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>78.9074572836047</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>78.9074572836047</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="R46" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="S46" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="T46" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="U46" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="V46" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="W46" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="X46" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="Y46" t="n">
-        <v>78.9074572836047</v>
+        <v>75.92774709491968</v>
       </c>
     </row>
   </sheetData>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6304807525173227</v>
+        <v>0.7311471447369385</v>
       </c>
       <c r="H11" t="n">
-        <v>6.456911006718033</v>
+        <v>7.487860696037173</v>
       </c>
       <c r="I11" t="n">
-        <v>24.30660921142411</v>
+        <v>28.18755029747085</v>
       </c>
       <c r="J11" t="n">
-        <v>53.51126576896716</v>
+        <v>62.05519997561679</v>
       </c>
       <c r="K11" t="n">
-        <v>80.19951602302545</v>
+        <v>93.00465861233141</v>
       </c>
       <c r="L11" t="n">
-        <v>99.49459135287749</v>
+        <v>115.3805030430745</v>
       </c>
       <c r="M11" t="n">
-        <v>110.7069034354574</v>
+        <v>128.3830410782901</v>
       </c>
       <c r="N11" t="n">
-        <v>112.4982568735473</v>
+        <v>130.4604129032739</v>
       </c>
       <c r="O11" t="n">
-        <v>106.2289138907031</v>
+        <v>123.190068482796</v>
       </c>
       <c r="P11" t="n">
-        <v>90.66392031293172</v>
+        <v>105.1398733471028</v>
       </c>
       <c r="Q11" t="n">
-        <v>68.08482836340508</v>
+        <v>78.95566622621112</v>
       </c>
       <c r="R11" t="n">
-        <v>39.60443657031631</v>
+        <v>45.92792183058175</v>
       </c>
       <c r="S11" t="n">
-        <v>14.36708014798851</v>
+        <v>16.661015560693</v>
       </c>
       <c r="T11" t="n">
-        <v>2.759929494144581</v>
+        <v>3.20059662608595</v>
       </c>
       <c r="U11" t="n">
-        <v>0.05043846020138581</v>
+        <v>0.05849177157895507</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3373369422549055</v>
+        <v>0.3911982105071274</v>
       </c>
       <c r="H12" t="n">
-        <v>3.257964679146062</v>
+        <v>3.778151138318836</v>
       </c>
       <c r="I12" t="n">
-        <v>11.6144517399167</v>
+        <v>13.4688857564954</v>
       </c>
       <c r="J12" t="n">
-        <v>31.87094330312685</v>
+        <v>36.95965198479838</v>
       </c>
       <c r="K12" t="n">
-        <v>54.47251843420551</v>
+        <v>63.16993208877592</v>
       </c>
       <c r="L12" t="n">
-        <v>73.24502336109254</v>
+        <v>84.93976934717256</v>
       </c>
       <c r="M12" t="n">
-        <v>85.47348751783285</v>
+        <v>99.1207044780559</v>
       </c>
       <c r="N12" t="n">
-        <v>87.73571639813001</v>
+        <v>101.7441345827287</v>
       </c>
       <c r="O12" t="n">
-        <v>80.26103994079763</v>
+        <v>93.07600581307078</v>
       </c>
       <c r="P12" t="n">
-        <v>64.4165604907635</v>
+        <v>74.70170039061102</v>
       </c>
       <c r="Q12" t="n">
-        <v>43.06076476924022</v>
+        <v>49.9361084149098</v>
       </c>
       <c r="R12" t="n">
-        <v>20.94448137965107</v>
+        <v>24.28860468394253</v>
       </c>
       <c r="S12" t="n">
-        <v>6.265885747585632</v>
+        <v>7.266335182007383</v>
       </c>
       <c r="T12" t="n">
-        <v>1.359704604966044</v>
+        <v>1.576803313403728</v>
       </c>
       <c r="U12" t="n">
-        <v>0.02219321988519116</v>
+        <v>0.02573672437546892</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2828119605041845</v>
+        <v>0.3279674384895819</v>
       </c>
       <c r="H13" t="n">
-        <v>2.514455430664479</v>
+        <v>2.915928680389194</v>
       </c>
       <c r="I13" t="n">
-        <v>8.50492695770766</v>
+        <v>9.862875332032155</v>
       </c>
       <c r="J13" t="n">
-        <v>19.99480560764584</v>
+        <v>23.18729790121344</v>
       </c>
       <c r="K13" t="n">
-        <v>32.8576077749407</v>
+        <v>38.10385330815323</v>
       </c>
       <c r="L13" t="n">
-        <v>42.04642547350394</v>
+        <v>48.75981353689657</v>
       </c>
       <c r="M13" t="n">
-        <v>44.33206031794229</v>
+        <v>51.41038674432599</v>
       </c>
       <c r="N13" t="n">
-        <v>43.27794301060855</v>
+        <v>50.18796265541032</v>
       </c>
       <c r="O13" t="n">
-        <v>39.97418510835511</v>
+        <v>46.35670666941837</v>
       </c>
       <c r="P13" t="n">
-        <v>34.20482111406972</v>
+        <v>39.66617092423087</v>
       </c>
       <c r="Q13" t="n">
-        <v>23.6816451654913</v>
+        <v>27.46280069025035</v>
       </c>
       <c r="R13" t="n">
-        <v>12.71625415139724</v>
+        <v>14.74660864335883</v>
       </c>
       <c r="S13" t="n">
-        <v>4.928641166241104</v>
+        <v>5.715577996222984</v>
       </c>
       <c r="T13" t="n">
-        <v>1.208378376699697</v>
+        <v>1.40131541900094</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0154261069365919</v>
+        <v>0.01788913300852267</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6304807525173227</v>
+        <v>0.7311471447369385</v>
       </c>
       <c r="H14" t="n">
-        <v>6.456911006718033</v>
+        <v>7.487860696037173</v>
       </c>
       <c r="I14" t="n">
-        <v>24.30660921142411</v>
+        <v>28.18755029747085</v>
       </c>
       <c r="J14" t="n">
-        <v>53.51126576896716</v>
+        <v>62.05519997561679</v>
       </c>
       <c r="K14" t="n">
-        <v>80.19951602302545</v>
+        <v>93.00465861233141</v>
       </c>
       <c r="L14" t="n">
-        <v>99.49459135287749</v>
+        <v>115.3805030430745</v>
       </c>
       <c r="M14" t="n">
-        <v>110.7069034354574</v>
+        <v>128.3830410782901</v>
       </c>
       <c r="N14" t="n">
-        <v>112.4982568735473</v>
+        <v>130.4604129032739</v>
       </c>
       <c r="O14" t="n">
-        <v>106.2289138907031</v>
+        <v>123.190068482796</v>
       </c>
       <c r="P14" t="n">
-        <v>90.66392031293172</v>
+        <v>105.1398733471028</v>
       </c>
       <c r="Q14" t="n">
-        <v>68.08482836340508</v>
+        <v>78.95566622621112</v>
       </c>
       <c r="R14" t="n">
-        <v>39.60443657031631</v>
+        <v>45.92792183058175</v>
       </c>
       <c r="S14" t="n">
-        <v>14.36708014798851</v>
+        <v>16.661015560693</v>
       </c>
       <c r="T14" t="n">
-        <v>2.759929494144581</v>
+        <v>3.20059662608595</v>
       </c>
       <c r="U14" t="n">
-        <v>0.05043846020138581</v>
+        <v>0.05849177157895507</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3373369422549055</v>
+        <v>0.3911982105071274</v>
       </c>
       <c r="H15" t="n">
-        <v>3.257964679146062</v>
+        <v>3.778151138318836</v>
       </c>
       <c r="I15" t="n">
-        <v>11.6144517399167</v>
+        <v>13.4688857564954</v>
       </c>
       <c r="J15" t="n">
-        <v>31.87094330312685</v>
+        <v>36.95965198479838</v>
       </c>
       <c r="K15" t="n">
-        <v>54.47251843420551</v>
+        <v>63.16993208877592</v>
       </c>
       <c r="L15" t="n">
-        <v>73.24502336109254</v>
+        <v>84.93976934717256</v>
       </c>
       <c r="M15" t="n">
-        <v>85.47348751783285</v>
+        <v>99.1207044780559</v>
       </c>
       <c r="N15" t="n">
-        <v>87.73571639813001</v>
+        <v>101.7441345827287</v>
       </c>
       <c r="O15" t="n">
-        <v>80.26103994079763</v>
+        <v>93.07600581307078</v>
       </c>
       <c r="P15" t="n">
-        <v>64.4165604907635</v>
+        <v>74.70170039061102</v>
       </c>
       <c r="Q15" t="n">
-        <v>43.06076476924022</v>
+        <v>49.9361084149098</v>
       </c>
       <c r="R15" t="n">
-        <v>20.94448137965107</v>
+        <v>24.28860468394253</v>
       </c>
       <c r="S15" t="n">
-        <v>6.265885747585632</v>
+        <v>7.266335182007383</v>
       </c>
       <c r="T15" t="n">
-        <v>1.359704604966044</v>
+        <v>1.576803313403728</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02219321988519116</v>
+        <v>0.02573672437546892</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2828119605041845</v>
+        <v>0.3279674384895819</v>
       </c>
       <c r="H16" t="n">
-        <v>2.514455430664479</v>
+        <v>2.915928680389194</v>
       </c>
       <c r="I16" t="n">
-        <v>8.50492695770766</v>
+        <v>9.862875332032155</v>
       </c>
       <c r="J16" t="n">
-        <v>19.99480560764584</v>
+        <v>23.18729790121344</v>
       </c>
       <c r="K16" t="n">
-        <v>32.8576077749407</v>
+        <v>38.10385330815323</v>
       </c>
       <c r="L16" t="n">
-        <v>42.04642547350394</v>
+        <v>48.75981353689657</v>
       </c>
       <c r="M16" t="n">
-        <v>44.33206031794229</v>
+        <v>51.41038674432599</v>
       </c>
       <c r="N16" t="n">
-        <v>43.27794301060855</v>
+        <v>50.18796265541032</v>
       </c>
       <c r="O16" t="n">
-        <v>39.97418510835511</v>
+        <v>46.35670666941837</v>
       </c>
       <c r="P16" t="n">
-        <v>34.20482111406972</v>
+        <v>39.66617092423087</v>
       </c>
       <c r="Q16" t="n">
-        <v>23.6816451654913</v>
+        <v>27.46280069025035</v>
       </c>
       <c r="R16" t="n">
-        <v>12.71625415139724</v>
+        <v>14.74660864335883</v>
       </c>
       <c r="S16" t="n">
-        <v>4.928641166241104</v>
+        <v>5.715577996222984</v>
       </c>
       <c r="T16" t="n">
-        <v>1.208378376699697</v>
+        <v>1.40131541900094</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0154261069365919</v>
+        <v>0.01788913300852267</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6304807525173227</v>
+        <v>0.7311471447369385</v>
       </c>
       <c r="H17" t="n">
-        <v>6.456911006718033</v>
+        <v>7.487860696037173</v>
       </c>
       <c r="I17" t="n">
-        <v>24.30660921142411</v>
+        <v>28.18755029747085</v>
       </c>
       <c r="J17" t="n">
-        <v>53.51126576896716</v>
+        <v>62.05519997561679</v>
       </c>
       <c r="K17" t="n">
-        <v>80.19951602302545</v>
+        <v>93.00465861233141</v>
       </c>
       <c r="L17" t="n">
-        <v>99.49459135287749</v>
+        <v>115.3805030430745</v>
       </c>
       <c r="M17" t="n">
-        <v>110.7069034354574</v>
+        <v>128.3830410782901</v>
       </c>
       <c r="N17" t="n">
-        <v>112.4982568735473</v>
+        <v>130.4604129032739</v>
       </c>
       <c r="O17" t="n">
-        <v>106.2289138907031</v>
+        <v>123.190068482796</v>
       </c>
       <c r="P17" t="n">
-        <v>90.66392031293172</v>
+        <v>105.1398733471028</v>
       </c>
       <c r="Q17" t="n">
-        <v>68.08482836340508</v>
+        <v>78.95566622621112</v>
       </c>
       <c r="R17" t="n">
-        <v>39.60443657031631</v>
+        <v>45.92792183058175</v>
       </c>
       <c r="S17" t="n">
-        <v>14.36708014798851</v>
+        <v>16.661015560693</v>
       </c>
       <c r="T17" t="n">
-        <v>2.759929494144581</v>
+        <v>3.20059662608595</v>
       </c>
       <c r="U17" t="n">
-        <v>0.05043846020138581</v>
+        <v>0.05849177157895507</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3373369422549055</v>
+        <v>0.3911982105071274</v>
       </c>
       <c r="H18" t="n">
-        <v>3.257964679146062</v>
+        <v>3.778151138318836</v>
       </c>
       <c r="I18" t="n">
-        <v>11.6144517399167</v>
+        <v>13.4688857564954</v>
       </c>
       <c r="J18" t="n">
-        <v>31.87094330312685</v>
+        <v>36.95965198479838</v>
       </c>
       <c r="K18" t="n">
-        <v>54.47251843420551</v>
+        <v>63.16993208877592</v>
       </c>
       <c r="L18" t="n">
-        <v>73.24502336109254</v>
+        <v>84.93976934717256</v>
       </c>
       <c r="M18" t="n">
-        <v>85.47348751783285</v>
+        <v>99.1207044780559</v>
       </c>
       <c r="N18" t="n">
-        <v>87.73571639813001</v>
+        <v>101.7441345827287</v>
       </c>
       <c r="O18" t="n">
-        <v>80.26103994079763</v>
+        <v>93.07600581307078</v>
       </c>
       <c r="P18" t="n">
-        <v>64.4165604907635</v>
+        <v>74.70170039061102</v>
       </c>
       <c r="Q18" t="n">
-        <v>43.06076476924022</v>
+        <v>49.9361084149098</v>
       </c>
       <c r="R18" t="n">
-        <v>20.94448137965107</v>
+        <v>24.28860468394253</v>
       </c>
       <c r="S18" t="n">
-        <v>6.265885747585632</v>
+        <v>7.266335182007383</v>
       </c>
       <c r="T18" t="n">
-        <v>1.359704604966044</v>
+        <v>1.576803313403728</v>
       </c>
       <c r="U18" t="n">
-        <v>0.02219321988519116</v>
+        <v>0.02573672437546892</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2828119605041845</v>
+        <v>0.3279674384895819</v>
       </c>
       <c r="H19" t="n">
-        <v>2.514455430664479</v>
+        <v>2.915928680389194</v>
       </c>
       <c r="I19" t="n">
-        <v>8.50492695770766</v>
+        <v>9.862875332032155</v>
       </c>
       <c r="J19" t="n">
-        <v>19.99480560764584</v>
+        <v>23.18729790121344</v>
       </c>
       <c r="K19" t="n">
-        <v>32.8576077749407</v>
+        <v>38.10385330815323</v>
       </c>
       <c r="L19" t="n">
-        <v>42.04642547350394</v>
+        <v>48.75981353689657</v>
       </c>
       <c r="M19" t="n">
-        <v>44.33206031794229</v>
+        <v>51.41038674432599</v>
       </c>
       <c r="N19" t="n">
-        <v>43.27794301060855</v>
+        <v>50.18796265541032</v>
       </c>
       <c r="O19" t="n">
-        <v>39.97418510835511</v>
+        <v>46.35670666941837</v>
       </c>
       <c r="P19" t="n">
-        <v>34.20482111406972</v>
+        <v>39.66617092423087</v>
       </c>
       <c r="Q19" t="n">
-        <v>23.6816451654913</v>
+        <v>27.46280069025035</v>
       </c>
       <c r="R19" t="n">
-        <v>12.71625415139724</v>
+        <v>14.74660864335883</v>
       </c>
       <c r="S19" t="n">
-        <v>4.928641166241104</v>
+        <v>5.715577996222984</v>
       </c>
       <c r="T19" t="n">
-        <v>1.208378376699697</v>
+        <v>1.40131541900094</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0154261069365919</v>
+        <v>0.01788913300852267</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6304807525173227</v>
+        <v>0.7311471447369385</v>
       </c>
       <c r="H20" t="n">
-        <v>6.456911006718033</v>
+        <v>7.487860696037173</v>
       </c>
       <c r="I20" t="n">
-        <v>24.30660921142411</v>
+        <v>28.18755029747085</v>
       </c>
       <c r="J20" t="n">
-        <v>53.51126576896716</v>
+        <v>62.05519997561679</v>
       </c>
       <c r="K20" t="n">
-        <v>80.19951602302545</v>
+        <v>93.00465861233141</v>
       </c>
       <c r="L20" t="n">
-        <v>99.49459135287749</v>
+        <v>115.3805030430745</v>
       </c>
       <c r="M20" t="n">
-        <v>110.7069034354574</v>
+        <v>128.3830410782901</v>
       </c>
       <c r="N20" t="n">
-        <v>112.4982568735473</v>
+        <v>130.4604129032739</v>
       </c>
       <c r="O20" t="n">
-        <v>106.2289138907031</v>
+        <v>123.190068482796</v>
       </c>
       <c r="P20" t="n">
-        <v>90.66392031293172</v>
+        <v>105.1398733471028</v>
       </c>
       <c r="Q20" t="n">
-        <v>68.08482836340508</v>
+        <v>78.95566622621112</v>
       </c>
       <c r="R20" t="n">
-        <v>39.60443657031631</v>
+        <v>45.92792183058175</v>
       </c>
       <c r="S20" t="n">
-        <v>14.36708014798851</v>
+        <v>16.661015560693</v>
       </c>
       <c r="T20" t="n">
-        <v>2.759929494144581</v>
+        <v>3.20059662608595</v>
       </c>
       <c r="U20" t="n">
-        <v>0.05043846020138581</v>
+        <v>0.05849177157895507</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3373369422549055</v>
+        <v>0.3911982105071274</v>
       </c>
       <c r="H21" t="n">
-        <v>3.257964679146062</v>
+        <v>3.778151138318836</v>
       </c>
       <c r="I21" t="n">
-        <v>11.6144517399167</v>
+        <v>13.4688857564954</v>
       </c>
       <c r="J21" t="n">
-        <v>31.87094330312685</v>
+        <v>36.95965198479838</v>
       </c>
       <c r="K21" t="n">
-        <v>54.47251843420551</v>
+        <v>63.16993208877592</v>
       </c>
       <c r="L21" t="n">
-        <v>73.24502336109254</v>
+        <v>84.93976934717256</v>
       </c>
       <c r="M21" t="n">
-        <v>85.47348751783285</v>
+        <v>99.1207044780559</v>
       </c>
       <c r="N21" t="n">
-        <v>87.73571639813001</v>
+        <v>101.7441345827287</v>
       </c>
       <c r="O21" t="n">
-        <v>80.26103994079763</v>
+        <v>93.07600581307078</v>
       </c>
       <c r="P21" t="n">
-        <v>64.4165604907635</v>
+        <v>74.70170039061102</v>
       </c>
       <c r="Q21" t="n">
-        <v>43.06076476924022</v>
+        <v>49.9361084149098</v>
       </c>
       <c r="R21" t="n">
-        <v>20.94448137965107</v>
+        <v>24.28860468394253</v>
       </c>
       <c r="S21" t="n">
-        <v>6.265885747585632</v>
+        <v>7.266335182007383</v>
       </c>
       <c r="T21" t="n">
-        <v>1.359704604966044</v>
+        <v>1.576803313403728</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02219321988519116</v>
+        <v>0.02573672437546892</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2828119605041845</v>
+        <v>0.3279674384895819</v>
       </c>
       <c r="H22" t="n">
-        <v>2.514455430664479</v>
+        <v>2.915928680389194</v>
       </c>
       <c r="I22" t="n">
-        <v>8.50492695770766</v>
+        <v>9.862875332032155</v>
       </c>
       <c r="J22" t="n">
-        <v>19.99480560764584</v>
+        <v>23.18729790121344</v>
       </c>
       <c r="K22" t="n">
-        <v>32.8576077749407</v>
+        <v>38.10385330815323</v>
       </c>
       <c r="L22" t="n">
-        <v>42.04642547350394</v>
+        <v>48.75981353689657</v>
       </c>
       <c r="M22" t="n">
-        <v>44.33206031794229</v>
+        <v>51.41038674432599</v>
       </c>
       <c r="N22" t="n">
-        <v>43.27794301060855</v>
+        <v>50.18796265541032</v>
       </c>
       <c r="O22" t="n">
-        <v>39.97418510835511</v>
+        <v>46.35670666941837</v>
       </c>
       <c r="P22" t="n">
-        <v>34.20482111406972</v>
+        <v>39.66617092423087</v>
       </c>
       <c r="Q22" t="n">
-        <v>23.6816451654913</v>
+        <v>27.46280069025035</v>
       </c>
       <c r="R22" t="n">
-        <v>12.71625415139724</v>
+        <v>14.74660864335883</v>
       </c>
       <c r="S22" t="n">
-        <v>4.928641166241104</v>
+        <v>5.715577996222984</v>
       </c>
       <c r="T22" t="n">
-        <v>1.208378376699697</v>
+        <v>1.40131541900094</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0154261069365919</v>
+        <v>0.01788913300852267</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6304807525173227</v>
+        <v>0.7311471447369385</v>
       </c>
       <c r="H23" t="n">
-        <v>6.456911006718033</v>
+        <v>7.487860696037173</v>
       </c>
       <c r="I23" t="n">
-        <v>24.30660921142411</v>
+        <v>28.18755029747085</v>
       </c>
       <c r="J23" t="n">
-        <v>53.51126576896716</v>
+        <v>62.05519997561679</v>
       </c>
       <c r="K23" t="n">
-        <v>80.19951602302545</v>
+        <v>93.00465861233141</v>
       </c>
       <c r="L23" t="n">
-        <v>99.49459135287749</v>
+        <v>115.3805030430745</v>
       </c>
       <c r="M23" t="n">
-        <v>110.7069034354574</v>
+        <v>128.3830410782901</v>
       </c>
       <c r="N23" t="n">
-        <v>112.4982568735473</v>
+        <v>130.4604129032739</v>
       </c>
       <c r="O23" t="n">
-        <v>106.2289138907031</v>
+        <v>123.190068482796</v>
       </c>
       <c r="P23" t="n">
-        <v>90.66392031293172</v>
+        <v>105.1398733471028</v>
       </c>
       <c r="Q23" t="n">
-        <v>68.08482836340508</v>
+        <v>78.95566622621112</v>
       </c>
       <c r="R23" t="n">
-        <v>39.60443657031631</v>
+        <v>45.92792183058175</v>
       </c>
       <c r="S23" t="n">
-        <v>14.36708014798851</v>
+        <v>16.661015560693</v>
       </c>
       <c r="T23" t="n">
-        <v>2.759929494144581</v>
+        <v>3.20059662608595</v>
       </c>
       <c r="U23" t="n">
-        <v>0.05043846020138581</v>
+        <v>0.05849177157895507</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3373369422549055</v>
+        <v>0.3911982105071274</v>
       </c>
       <c r="H24" t="n">
-        <v>3.257964679146062</v>
+        <v>3.778151138318836</v>
       </c>
       <c r="I24" t="n">
-        <v>11.6144517399167</v>
+        <v>13.4688857564954</v>
       </c>
       <c r="J24" t="n">
-        <v>31.87094330312685</v>
+        <v>36.95965198479838</v>
       </c>
       <c r="K24" t="n">
-        <v>54.47251843420551</v>
+        <v>63.16993208877592</v>
       </c>
       <c r="L24" t="n">
-        <v>73.24502336109254</v>
+        <v>84.93976934717256</v>
       </c>
       <c r="M24" t="n">
-        <v>85.47348751783285</v>
+        <v>99.1207044780559</v>
       </c>
       <c r="N24" t="n">
-        <v>87.73571639813001</v>
+        <v>101.7441345827287</v>
       </c>
       <c r="O24" t="n">
-        <v>80.26103994079763</v>
+        <v>93.07600581307078</v>
       </c>
       <c r="P24" t="n">
-        <v>64.4165604907635</v>
+        <v>74.70170039061102</v>
       </c>
       <c r="Q24" t="n">
-        <v>43.06076476924022</v>
+        <v>49.9361084149098</v>
       </c>
       <c r="R24" t="n">
-        <v>20.94448137965107</v>
+        <v>24.28860468394253</v>
       </c>
       <c r="S24" t="n">
-        <v>6.265885747585632</v>
+        <v>7.266335182007383</v>
       </c>
       <c r="T24" t="n">
-        <v>1.359704604966044</v>
+        <v>1.576803313403728</v>
       </c>
       <c r="U24" t="n">
-        <v>0.02219321988519116</v>
+        <v>0.02573672437546892</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2828119605041845</v>
+        <v>0.3279674384895819</v>
       </c>
       <c r="H25" t="n">
-        <v>2.514455430664479</v>
+        <v>2.915928680389194</v>
       </c>
       <c r="I25" t="n">
-        <v>8.50492695770766</v>
+        <v>9.862875332032155</v>
       </c>
       <c r="J25" t="n">
-        <v>19.99480560764584</v>
+        <v>23.18729790121344</v>
       </c>
       <c r="K25" t="n">
-        <v>32.8576077749407</v>
+        <v>38.10385330815323</v>
       </c>
       <c r="L25" t="n">
-        <v>42.04642547350394</v>
+        <v>48.75981353689657</v>
       </c>
       <c r="M25" t="n">
-        <v>44.33206031794229</v>
+        <v>51.41038674432599</v>
       </c>
       <c r="N25" t="n">
-        <v>43.27794301060855</v>
+        <v>50.18796265541032</v>
       </c>
       <c r="O25" t="n">
-        <v>39.97418510835511</v>
+        <v>46.35670666941837</v>
       </c>
       <c r="P25" t="n">
-        <v>34.20482111406972</v>
+        <v>39.66617092423087</v>
       </c>
       <c r="Q25" t="n">
-        <v>23.6816451654913</v>
+        <v>27.46280069025035</v>
       </c>
       <c r="R25" t="n">
-        <v>12.71625415139724</v>
+        <v>14.74660864335883</v>
       </c>
       <c r="S25" t="n">
-        <v>4.928641166241104</v>
+        <v>5.715577996222984</v>
       </c>
       <c r="T25" t="n">
-        <v>1.208378376699697</v>
+        <v>1.40131541900094</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0154261069365919</v>
+        <v>0.01788913300852267</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6304807525173227</v>
+        <v>0.7311471447369385</v>
       </c>
       <c r="H26" t="n">
-        <v>6.456911006718033</v>
+        <v>7.487860696037173</v>
       </c>
       <c r="I26" t="n">
-        <v>24.30660921142411</v>
+        <v>28.18755029747085</v>
       </c>
       <c r="J26" t="n">
-        <v>53.51126576896716</v>
+        <v>62.05519997561679</v>
       </c>
       <c r="K26" t="n">
-        <v>80.19951602302545</v>
+        <v>93.00465861233141</v>
       </c>
       <c r="L26" t="n">
-        <v>99.49459135287749</v>
+        <v>115.3805030430745</v>
       </c>
       <c r="M26" t="n">
-        <v>110.7069034354574</v>
+        <v>128.3830410782901</v>
       </c>
       <c r="N26" t="n">
-        <v>112.4982568735473</v>
+        <v>130.4604129032739</v>
       </c>
       <c r="O26" t="n">
-        <v>106.2289138907031</v>
+        <v>123.190068482796</v>
       </c>
       <c r="P26" t="n">
-        <v>90.66392031293172</v>
+        <v>105.1398733471028</v>
       </c>
       <c r="Q26" t="n">
-        <v>68.08482836340508</v>
+        <v>78.95566622621112</v>
       </c>
       <c r="R26" t="n">
-        <v>39.60443657031631</v>
+        <v>45.92792183058175</v>
       </c>
       <c r="S26" t="n">
-        <v>14.36708014798851</v>
+        <v>16.661015560693</v>
       </c>
       <c r="T26" t="n">
-        <v>2.759929494144581</v>
+        <v>3.20059662608595</v>
       </c>
       <c r="U26" t="n">
-        <v>0.05043846020138581</v>
+        <v>0.05849177157895507</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3373369422549055</v>
+        <v>0.3911982105071274</v>
       </c>
       <c r="H27" t="n">
-        <v>3.257964679146062</v>
+        <v>3.778151138318836</v>
       </c>
       <c r="I27" t="n">
-        <v>11.6144517399167</v>
+        <v>13.4688857564954</v>
       </c>
       <c r="J27" t="n">
-        <v>31.87094330312685</v>
+        <v>36.95965198479838</v>
       </c>
       <c r="K27" t="n">
-        <v>54.47251843420551</v>
+        <v>63.16993208877592</v>
       </c>
       <c r="L27" t="n">
-        <v>73.24502336109254</v>
+        <v>84.93976934717256</v>
       </c>
       <c r="M27" t="n">
-        <v>85.47348751783285</v>
+        <v>99.1207044780559</v>
       </c>
       <c r="N27" t="n">
-        <v>87.73571639813001</v>
+        <v>101.7441345827287</v>
       </c>
       <c r="O27" t="n">
-        <v>80.26103994079763</v>
+        <v>93.07600581307078</v>
       </c>
       <c r="P27" t="n">
-        <v>64.4165604907635</v>
+        <v>74.70170039061102</v>
       </c>
       <c r="Q27" t="n">
-        <v>43.06076476924022</v>
+        <v>49.9361084149098</v>
       </c>
       <c r="R27" t="n">
-        <v>20.94448137965107</v>
+        <v>24.28860468394253</v>
       </c>
       <c r="S27" t="n">
-        <v>6.265885747585632</v>
+        <v>7.266335182007383</v>
       </c>
       <c r="T27" t="n">
-        <v>1.359704604966044</v>
+        <v>1.576803313403728</v>
       </c>
       <c r="U27" t="n">
-        <v>0.02219321988519116</v>
+        <v>0.02573672437546892</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2828119605041845</v>
+        <v>0.3279674384895819</v>
       </c>
       <c r="H28" t="n">
-        <v>2.514455430664479</v>
+        <v>2.915928680389194</v>
       </c>
       <c r="I28" t="n">
-        <v>8.50492695770766</v>
+        <v>9.862875332032155</v>
       </c>
       <c r="J28" t="n">
-        <v>19.99480560764584</v>
+        <v>23.18729790121344</v>
       </c>
       <c r="K28" t="n">
-        <v>32.8576077749407</v>
+        <v>38.10385330815323</v>
       </c>
       <c r="L28" t="n">
-        <v>42.04642547350394</v>
+        <v>48.75981353689657</v>
       </c>
       <c r="M28" t="n">
-        <v>44.33206031794229</v>
+        <v>51.41038674432599</v>
       </c>
       <c r="N28" t="n">
-        <v>43.27794301060855</v>
+        <v>50.18796265541032</v>
       </c>
       <c r="O28" t="n">
-        <v>39.97418510835511</v>
+        <v>46.35670666941837</v>
       </c>
       <c r="P28" t="n">
-        <v>34.20482111406972</v>
+        <v>39.66617092423087</v>
       </c>
       <c r="Q28" t="n">
-        <v>23.6816451654913</v>
+        <v>27.46280069025035</v>
       </c>
       <c r="R28" t="n">
-        <v>12.71625415139724</v>
+        <v>14.74660864335883</v>
       </c>
       <c r="S28" t="n">
-        <v>4.928641166241104</v>
+        <v>5.715577996222984</v>
       </c>
       <c r="T28" t="n">
-        <v>1.208378376699697</v>
+        <v>1.40131541900094</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0154261069365919</v>
+        <v>0.01788913300852267</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.6304807525173227</v>
+        <v>0.7311471447369385</v>
       </c>
       <c r="H29" t="n">
-        <v>6.456911006718033</v>
+        <v>7.487860696037173</v>
       </c>
       <c r="I29" t="n">
-        <v>24.30660921142411</v>
+        <v>28.18755029747085</v>
       </c>
       <c r="J29" t="n">
-        <v>53.51126576896716</v>
+        <v>62.05519997561679</v>
       </c>
       <c r="K29" t="n">
-        <v>80.19951602302545</v>
+        <v>93.00465861233141</v>
       </c>
       <c r="L29" t="n">
-        <v>99.49459135287749</v>
+        <v>115.3805030430745</v>
       </c>
       <c r="M29" t="n">
-        <v>110.7069034354574</v>
+        <v>128.3830410782901</v>
       </c>
       <c r="N29" t="n">
-        <v>112.4982568735473</v>
+        <v>130.4604129032739</v>
       </c>
       <c r="O29" t="n">
-        <v>106.2289138907031</v>
+        <v>123.190068482796</v>
       </c>
       <c r="P29" t="n">
-        <v>90.66392031293172</v>
+        <v>105.1398733471028</v>
       </c>
       <c r="Q29" t="n">
-        <v>68.08482836340508</v>
+        <v>78.95566622621112</v>
       </c>
       <c r="R29" t="n">
-        <v>39.60443657031631</v>
+        <v>45.92792183058175</v>
       </c>
       <c r="S29" t="n">
-        <v>14.36708014798851</v>
+        <v>16.661015560693</v>
       </c>
       <c r="T29" t="n">
-        <v>2.759929494144581</v>
+        <v>3.20059662608595</v>
       </c>
       <c r="U29" t="n">
-        <v>0.05043846020138581</v>
+        <v>0.05849177157895507</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3373369422549055</v>
+        <v>0.3911982105071274</v>
       </c>
       <c r="H30" t="n">
-        <v>3.257964679146062</v>
+        <v>3.778151138318836</v>
       </c>
       <c r="I30" t="n">
-        <v>11.6144517399167</v>
+        <v>13.4688857564954</v>
       </c>
       <c r="J30" t="n">
-        <v>31.87094330312685</v>
+        <v>36.95965198479838</v>
       </c>
       <c r="K30" t="n">
-        <v>54.47251843420551</v>
+        <v>63.16993208877592</v>
       </c>
       <c r="L30" t="n">
-        <v>73.24502336109254</v>
+        <v>84.93976934717256</v>
       </c>
       <c r="M30" t="n">
-        <v>85.47348751783285</v>
+        <v>99.1207044780559</v>
       </c>
       <c r="N30" t="n">
-        <v>87.73571639813001</v>
+        <v>101.7441345827287</v>
       </c>
       <c r="O30" t="n">
-        <v>80.26103994079763</v>
+        <v>93.07600581307078</v>
       </c>
       <c r="P30" t="n">
-        <v>64.4165604907635</v>
+        <v>74.70170039061102</v>
       </c>
       <c r="Q30" t="n">
-        <v>43.06076476924022</v>
+        <v>49.9361084149098</v>
       </c>
       <c r="R30" t="n">
-        <v>20.94448137965107</v>
+        <v>24.28860468394253</v>
       </c>
       <c r="S30" t="n">
-        <v>6.265885747585632</v>
+        <v>7.266335182007383</v>
       </c>
       <c r="T30" t="n">
-        <v>1.359704604966044</v>
+        <v>1.576803313403728</v>
       </c>
       <c r="U30" t="n">
-        <v>0.02219321988519116</v>
+        <v>0.02573672437546892</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2828119605041845</v>
+        <v>0.3279674384895819</v>
       </c>
       <c r="H31" t="n">
-        <v>2.514455430664479</v>
+        <v>2.915928680389194</v>
       </c>
       <c r="I31" t="n">
-        <v>8.50492695770766</v>
+        <v>9.862875332032155</v>
       </c>
       <c r="J31" t="n">
-        <v>19.99480560764584</v>
+        <v>23.18729790121344</v>
       </c>
       <c r="K31" t="n">
-        <v>32.8576077749407</v>
+        <v>38.10385330815323</v>
       </c>
       <c r="L31" t="n">
-        <v>42.04642547350394</v>
+        <v>48.75981353689657</v>
       </c>
       <c r="M31" t="n">
-        <v>44.33206031794229</v>
+        <v>51.41038674432599</v>
       </c>
       <c r="N31" t="n">
-        <v>43.27794301060855</v>
+        <v>50.18796265541032</v>
       </c>
       <c r="O31" t="n">
-        <v>39.97418510835511</v>
+        <v>46.35670666941837</v>
       </c>
       <c r="P31" t="n">
-        <v>34.20482111406972</v>
+        <v>39.66617092423087</v>
       </c>
       <c r="Q31" t="n">
-        <v>23.6816451654913</v>
+        <v>27.46280069025035</v>
       </c>
       <c r="R31" t="n">
-        <v>12.71625415139724</v>
+        <v>14.74660864335883</v>
       </c>
       <c r="S31" t="n">
-        <v>4.928641166241104</v>
+        <v>5.715577996222984</v>
       </c>
       <c r="T31" t="n">
-        <v>1.208378376699697</v>
+        <v>1.40131541900094</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0154261069365919</v>
+        <v>0.01788913300852267</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.6304807525173227</v>
+        <v>0.7311471447369385</v>
       </c>
       <c r="H32" t="n">
-        <v>6.456911006718033</v>
+        <v>7.487860696037173</v>
       </c>
       <c r="I32" t="n">
-        <v>24.30660921142411</v>
+        <v>28.18755029747085</v>
       </c>
       <c r="J32" t="n">
-        <v>53.51126576896716</v>
+        <v>62.05519997561679</v>
       </c>
       <c r="K32" t="n">
-        <v>80.19951602302545</v>
+        <v>93.00465861233141</v>
       </c>
       <c r="L32" t="n">
-        <v>99.49459135287749</v>
+        <v>115.3805030430745</v>
       </c>
       <c r="M32" t="n">
-        <v>110.7069034354574</v>
+        <v>128.3830410782901</v>
       </c>
       <c r="N32" t="n">
-        <v>112.4982568735473</v>
+        <v>130.4604129032739</v>
       </c>
       <c r="O32" t="n">
-        <v>106.2289138907031</v>
+        <v>123.190068482796</v>
       </c>
       <c r="P32" t="n">
-        <v>90.66392031293172</v>
+        <v>105.1398733471028</v>
       </c>
       <c r="Q32" t="n">
-        <v>68.08482836340508</v>
+        <v>78.95566622621112</v>
       </c>
       <c r="R32" t="n">
-        <v>39.60443657031631</v>
+        <v>45.92792183058175</v>
       </c>
       <c r="S32" t="n">
-        <v>14.36708014798851</v>
+        <v>16.661015560693</v>
       </c>
       <c r="T32" t="n">
-        <v>2.759929494144581</v>
+        <v>3.20059662608595</v>
       </c>
       <c r="U32" t="n">
-        <v>0.05043846020138581</v>
+        <v>0.05849177157895507</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.3373369422549055</v>
+        <v>0.3911982105071274</v>
       </c>
       <c r="H33" t="n">
-        <v>3.257964679146062</v>
+        <v>3.778151138318836</v>
       </c>
       <c r="I33" t="n">
-        <v>11.6144517399167</v>
+        <v>13.4688857564954</v>
       </c>
       <c r="J33" t="n">
-        <v>31.87094330312685</v>
+        <v>36.95965198479838</v>
       </c>
       <c r="K33" t="n">
-        <v>54.47251843420551</v>
+        <v>63.16993208877592</v>
       </c>
       <c r="L33" t="n">
-        <v>73.24502336109254</v>
+        <v>84.93976934717256</v>
       </c>
       <c r="M33" t="n">
-        <v>85.47348751783285</v>
+        <v>99.1207044780559</v>
       </c>
       <c r="N33" t="n">
-        <v>87.73571639813001</v>
+        <v>101.7441345827287</v>
       </c>
       <c r="O33" t="n">
-        <v>80.26103994079763</v>
+        <v>93.07600581307078</v>
       </c>
       <c r="P33" t="n">
-        <v>64.4165604907635</v>
+        <v>74.70170039061102</v>
       </c>
       <c r="Q33" t="n">
-        <v>43.06076476924022</v>
+        <v>49.9361084149098</v>
       </c>
       <c r="R33" t="n">
-        <v>20.94448137965107</v>
+        <v>24.28860468394253</v>
       </c>
       <c r="S33" t="n">
-        <v>6.265885747585632</v>
+        <v>7.266335182007383</v>
       </c>
       <c r="T33" t="n">
-        <v>1.359704604966044</v>
+        <v>1.576803313403728</v>
       </c>
       <c r="U33" t="n">
-        <v>0.02219321988519116</v>
+        <v>0.02573672437546892</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2828119605041845</v>
+        <v>0.3279674384895819</v>
       </c>
       <c r="H34" t="n">
-        <v>2.514455430664479</v>
+        <v>2.915928680389194</v>
       </c>
       <c r="I34" t="n">
-        <v>8.50492695770766</v>
+        <v>9.862875332032155</v>
       </c>
       <c r="J34" t="n">
-        <v>19.99480560764584</v>
+        <v>23.18729790121344</v>
       </c>
       <c r="K34" t="n">
-        <v>32.8576077749407</v>
+        <v>38.10385330815323</v>
       </c>
       <c r="L34" t="n">
-        <v>42.04642547350394</v>
+        <v>48.75981353689657</v>
       </c>
       <c r="M34" t="n">
-        <v>44.33206031794229</v>
+        <v>51.41038674432599</v>
       </c>
       <c r="N34" t="n">
-        <v>43.27794301060855</v>
+        <v>50.18796265541032</v>
       </c>
       <c r="O34" t="n">
-        <v>39.97418510835511</v>
+        <v>46.35670666941837</v>
       </c>
       <c r="P34" t="n">
-        <v>34.20482111406972</v>
+        <v>39.66617092423087</v>
       </c>
       <c r="Q34" t="n">
-        <v>23.6816451654913</v>
+        <v>27.46280069025035</v>
       </c>
       <c r="R34" t="n">
-        <v>12.71625415139724</v>
+        <v>14.74660864335883</v>
       </c>
       <c r="S34" t="n">
-        <v>4.928641166241104</v>
+        <v>5.715577996222984</v>
       </c>
       <c r="T34" t="n">
-        <v>1.208378376699697</v>
+        <v>1.40131541900094</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0154261069365919</v>
+        <v>0.01788913300852267</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.6304807525173227</v>
+        <v>0.7311471447369385</v>
       </c>
       <c r="H35" t="n">
-        <v>6.456911006718033</v>
+        <v>7.487860696037173</v>
       </c>
       <c r="I35" t="n">
-        <v>24.30660921142411</v>
+        <v>28.18755029747085</v>
       </c>
       <c r="J35" t="n">
-        <v>53.51126576896716</v>
+        <v>62.05519997561679</v>
       </c>
       <c r="K35" t="n">
-        <v>80.19951602302545</v>
+        <v>93.00465861233141</v>
       </c>
       <c r="L35" t="n">
-        <v>99.49459135287749</v>
+        <v>115.3805030430745</v>
       </c>
       <c r="M35" t="n">
-        <v>110.7069034354574</v>
+        <v>128.3830410782901</v>
       </c>
       <c r="N35" t="n">
-        <v>112.4982568735473</v>
+        <v>130.4604129032739</v>
       </c>
       <c r="O35" t="n">
-        <v>106.2289138907031</v>
+        <v>123.190068482796</v>
       </c>
       <c r="P35" t="n">
-        <v>90.66392031293172</v>
+        <v>105.1398733471028</v>
       </c>
       <c r="Q35" t="n">
-        <v>68.08482836340508</v>
+        <v>78.95566622621112</v>
       </c>
       <c r="R35" t="n">
-        <v>39.60443657031631</v>
+        <v>45.92792183058175</v>
       </c>
       <c r="S35" t="n">
-        <v>14.36708014798851</v>
+        <v>16.661015560693</v>
       </c>
       <c r="T35" t="n">
-        <v>2.759929494144581</v>
+        <v>3.20059662608595</v>
       </c>
       <c r="U35" t="n">
-        <v>0.05043846020138581</v>
+        <v>0.05849177157895507</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.3373369422549055</v>
+        <v>0.3911982105071274</v>
       </c>
       <c r="H36" t="n">
-        <v>3.257964679146062</v>
+        <v>3.778151138318836</v>
       </c>
       <c r="I36" t="n">
-        <v>11.6144517399167</v>
+        <v>13.4688857564954</v>
       </c>
       <c r="J36" t="n">
-        <v>31.87094330312685</v>
+        <v>36.95965198479838</v>
       </c>
       <c r="K36" t="n">
-        <v>54.47251843420551</v>
+        <v>63.16993208877592</v>
       </c>
       <c r="L36" t="n">
-        <v>73.24502336109254</v>
+        <v>84.93976934717256</v>
       </c>
       <c r="M36" t="n">
-        <v>85.47348751783285</v>
+        <v>99.1207044780559</v>
       </c>
       <c r="N36" t="n">
-        <v>87.73571639813001</v>
+        <v>101.7441345827287</v>
       </c>
       <c r="O36" t="n">
-        <v>80.26103994079763</v>
+        <v>93.07600581307078</v>
       </c>
       <c r="P36" t="n">
-        <v>64.4165604907635</v>
+        <v>74.70170039061102</v>
       </c>
       <c r="Q36" t="n">
-        <v>43.06076476924022</v>
+        <v>49.9361084149098</v>
       </c>
       <c r="R36" t="n">
-        <v>20.94448137965107</v>
+        <v>24.28860468394253</v>
       </c>
       <c r="S36" t="n">
-        <v>6.265885747585632</v>
+        <v>7.266335182007383</v>
       </c>
       <c r="T36" t="n">
-        <v>1.359704604966044</v>
+        <v>1.576803313403728</v>
       </c>
       <c r="U36" t="n">
-        <v>0.02219321988519116</v>
+        <v>0.02573672437546892</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2828119605041845</v>
+        <v>0.3279674384895819</v>
       </c>
       <c r="H37" t="n">
-        <v>2.514455430664479</v>
+        <v>2.915928680389194</v>
       </c>
       <c r="I37" t="n">
-        <v>8.50492695770766</v>
+        <v>9.862875332032155</v>
       </c>
       <c r="J37" t="n">
-        <v>19.99480560764584</v>
+        <v>23.18729790121344</v>
       </c>
       <c r="K37" t="n">
-        <v>32.8576077749407</v>
+        <v>38.10385330815323</v>
       </c>
       <c r="L37" t="n">
-        <v>42.04642547350394</v>
+        <v>48.75981353689657</v>
       </c>
       <c r="M37" t="n">
-        <v>44.33206031794229</v>
+        <v>51.41038674432599</v>
       </c>
       <c r="N37" t="n">
-        <v>43.27794301060855</v>
+        <v>50.18796265541032</v>
       </c>
       <c r="O37" t="n">
-        <v>39.97418510835511</v>
+        <v>46.35670666941837</v>
       </c>
       <c r="P37" t="n">
-        <v>34.20482111406972</v>
+        <v>39.66617092423087</v>
       </c>
       <c r="Q37" t="n">
-        <v>23.6816451654913</v>
+        <v>27.46280069025035</v>
       </c>
       <c r="R37" t="n">
-        <v>12.71625415139724</v>
+        <v>14.74660864335883</v>
       </c>
       <c r="S37" t="n">
-        <v>4.928641166241104</v>
+        <v>5.715577996222984</v>
       </c>
       <c r="T37" t="n">
-        <v>1.208378376699697</v>
+        <v>1.40131541900094</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0154261069365919</v>
+        <v>0.01788913300852267</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.6304807525173227</v>
+        <v>0.7311471447369385</v>
       </c>
       <c r="H38" t="n">
-        <v>6.456911006718033</v>
+        <v>7.487860696037173</v>
       </c>
       <c r="I38" t="n">
-        <v>24.30660921142411</v>
+        <v>28.18755029747085</v>
       </c>
       <c r="J38" t="n">
-        <v>53.51126576896716</v>
+        <v>62.05519997561679</v>
       </c>
       <c r="K38" t="n">
-        <v>80.19951602302545</v>
+        <v>93.00465861233141</v>
       </c>
       <c r="L38" t="n">
-        <v>99.49459135287749</v>
+        <v>115.3805030430745</v>
       </c>
       <c r="M38" t="n">
-        <v>110.7069034354574</v>
+        <v>128.3830410782901</v>
       </c>
       <c r="N38" t="n">
-        <v>112.4982568735473</v>
+        <v>130.4604129032739</v>
       </c>
       <c r="O38" t="n">
-        <v>106.2289138907031</v>
+        <v>123.190068482796</v>
       </c>
       <c r="P38" t="n">
-        <v>90.66392031293172</v>
+        <v>105.1398733471028</v>
       </c>
       <c r="Q38" t="n">
-        <v>68.08482836340508</v>
+        <v>78.95566622621112</v>
       </c>
       <c r="R38" t="n">
-        <v>39.60443657031631</v>
+        <v>45.92792183058175</v>
       </c>
       <c r="S38" t="n">
-        <v>14.36708014798851</v>
+        <v>16.661015560693</v>
       </c>
       <c r="T38" t="n">
-        <v>2.759929494144581</v>
+        <v>3.20059662608595</v>
       </c>
       <c r="U38" t="n">
-        <v>0.05043846020138581</v>
+        <v>0.05849177157895507</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3373369422549055</v>
+        <v>0.3911982105071274</v>
       </c>
       <c r="H39" t="n">
-        <v>3.257964679146062</v>
+        <v>3.778151138318836</v>
       </c>
       <c r="I39" t="n">
-        <v>11.6144517399167</v>
+        <v>13.4688857564954</v>
       </c>
       <c r="J39" t="n">
-        <v>31.87094330312685</v>
+        <v>36.95965198479838</v>
       </c>
       <c r="K39" t="n">
-        <v>54.47251843420551</v>
+        <v>63.16993208877592</v>
       </c>
       <c r="L39" t="n">
-        <v>73.24502336109254</v>
+        <v>84.93976934717256</v>
       </c>
       <c r="M39" t="n">
-        <v>85.47348751783285</v>
+        <v>99.1207044780559</v>
       </c>
       <c r="N39" t="n">
-        <v>87.73571639813001</v>
+        <v>101.7441345827287</v>
       </c>
       <c r="O39" t="n">
-        <v>80.26103994079763</v>
+        <v>93.07600581307078</v>
       </c>
       <c r="P39" t="n">
-        <v>64.4165604907635</v>
+        <v>74.70170039061102</v>
       </c>
       <c r="Q39" t="n">
-        <v>43.06076476924022</v>
+        <v>49.9361084149098</v>
       </c>
       <c r="R39" t="n">
-        <v>20.94448137965107</v>
+        <v>24.28860468394253</v>
       </c>
       <c r="S39" t="n">
-        <v>6.265885747585632</v>
+        <v>7.266335182007383</v>
       </c>
       <c r="T39" t="n">
-        <v>1.359704604966044</v>
+        <v>1.576803313403728</v>
       </c>
       <c r="U39" t="n">
-        <v>0.02219321988519116</v>
+        <v>0.02573672437546892</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2828119605041845</v>
+        <v>0.3279674384895819</v>
       </c>
       <c r="H40" t="n">
-        <v>2.514455430664479</v>
+        <v>2.915928680389194</v>
       </c>
       <c r="I40" t="n">
-        <v>8.50492695770766</v>
+        <v>9.862875332032155</v>
       </c>
       <c r="J40" t="n">
-        <v>19.99480560764584</v>
+        <v>23.18729790121344</v>
       </c>
       <c r="K40" t="n">
-        <v>32.8576077749407</v>
+        <v>38.10385330815323</v>
       </c>
       <c r="L40" t="n">
-        <v>42.04642547350394</v>
+        <v>48.75981353689657</v>
       </c>
       <c r="M40" t="n">
-        <v>44.33206031794229</v>
+        <v>51.41038674432599</v>
       </c>
       <c r="N40" t="n">
-        <v>43.27794301060855</v>
+        <v>50.18796265541032</v>
       </c>
       <c r="O40" t="n">
-        <v>39.97418510835511</v>
+        <v>46.35670666941837</v>
       </c>
       <c r="P40" t="n">
-        <v>34.20482111406972</v>
+        <v>39.66617092423087</v>
       </c>
       <c r="Q40" t="n">
-        <v>23.6816451654913</v>
+        <v>27.46280069025035</v>
       </c>
       <c r="R40" t="n">
-        <v>12.71625415139724</v>
+        <v>14.74660864335883</v>
       </c>
       <c r="S40" t="n">
-        <v>4.928641166241104</v>
+        <v>5.715577996222984</v>
       </c>
       <c r="T40" t="n">
-        <v>1.208378376699697</v>
+        <v>1.40131541900094</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0154261069365919</v>
+        <v>0.01788913300852267</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6304807525173227</v>
+        <v>0.7311471447369385</v>
       </c>
       <c r="H41" t="n">
-        <v>6.456911006718033</v>
+        <v>7.487860696037173</v>
       </c>
       <c r="I41" t="n">
-        <v>24.30660921142411</v>
+        <v>28.18755029747085</v>
       </c>
       <c r="J41" t="n">
-        <v>53.51126576896716</v>
+        <v>62.05519997561679</v>
       </c>
       <c r="K41" t="n">
-        <v>80.19951602302545</v>
+        <v>93.00465861233141</v>
       </c>
       <c r="L41" t="n">
-        <v>99.49459135287749</v>
+        <v>115.3805030430745</v>
       </c>
       <c r="M41" t="n">
-        <v>110.7069034354574</v>
+        <v>128.3830410782901</v>
       </c>
       <c r="N41" t="n">
-        <v>112.4982568735473</v>
+        <v>130.4604129032739</v>
       </c>
       <c r="O41" t="n">
-        <v>106.2289138907031</v>
+        <v>123.190068482796</v>
       </c>
       <c r="P41" t="n">
-        <v>90.66392031293172</v>
+        <v>105.1398733471028</v>
       </c>
       <c r="Q41" t="n">
-        <v>68.08482836340508</v>
+        <v>78.95566622621112</v>
       </c>
       <c r="R41" t="n">
-        <v>39.60443657031631</v>
+        <v>45.92792183058175</v>
       </c>
       <c r="S41" t="n">
-        <v>14.36708014798851</v>
+        <v>16.661015560693</v>
       </c>
       <c r="T41" t="n">
-        <v>2.759929494144581</v>
+        <v>3.20059662608595</v>
       </c>
       <c r="U41" t="n">
-        <v>0.05043846020138581</v>
+        <v>0.05849177157895507</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.3373369422549055</v>
+        <v>0.3911982105071274</v>
       </c>
       <c r="H42" t="n">
-        <v>3.257964679146062</v>
+        <v>3.778151138318836</v>
       </c>
       <c r="I42" t="n">
-        <v>11.6144517399167</v>
+        <v>13.4688857564954</v>
       </c>
       <c r="J42" t="n">
-        <v>31.87094330312685</v>
+        <v>36.95965198479838</v>
       </c>
       <c r="K42" t="n">
-        <v>54.47251843420551</v>
+        <v>63.16993208877592</v>
       </c>
       <c r="L42" t="n">
-        <v>73.24502336109254</v>
+        <v>84.93976934717256</v>
       </c>
       <c r="M42" t="n">
-        <v>85.47348751783285</v>
+        <v>99.1207044780559</v>
       </c>
       <c r="N42" t="n">
-        <v>87.73571639813001</v>
+        <v>101.7441345827287</v>
       </c>
       <c r="O42" t="n">
-        <v>80.26103994079763</v>
+        <v>93.07600581307078</v>
       </c>
       <c r="P42" t="n">
-        <v>64.4165604907635</v>
+        <v>74.70170039061102</v>
       </c>
       <c r="Q42" t="n">
-        <v>43.06076476924022</v>
+        <v>49.9361084149098</v>
       </c>
       <c r="R42" t="n">
-        <v>20.94448137965107</v>
+        <v>24.28860468394253</v>
       </c>
       <c r="S42" t="n">
-        <v>6.265885747585632</v>
+        <v>7.266335182007383</v>
       </c>
       <c r="T42" t="n">
-        <v>1.359704604966044</v>
+        <v>1.576803313403728</v>
       </c>
       <c r="U42" t="n">
-        <v>0.02219321988519116</v>
+        <v>0.02573672437546892</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2828119605041845</v>
+        <v>0.3279674384895819</v>
       </c>
       <c r="H43" t="n">
-        <v>2.514455430664479</v>
+        <v>2.915928680389194</v>
       </c>
       <c r="I43" t="n">
-        <v>8.50492695770766</v>
+        <v>9.862875332032155</v>
       </c>
       <c r="J43" t="n">
-        <v>19.99480560764584</v>
+        <v>23.18729790121344</v>
       </c>
       <c r="K43" t="n">
-        <v>32.8576077749407</v>
+        <v>38.10385330815323</v>
       </c>
       <c r="L43" t="n">
-        <v>42.04642547350394</v>
+        <v>48.75981353689657</v>
       </c>
       <c r="M43" t="n">
-        <v>44.33206031794229</v>
+        <v>51.41038674432599</v>
       </c>
       <c r="N43" t="n">
-        <v>43.27794301060855</v>
+        <v>50.18796265541032</v>
       </c>
       <c r="O43" t="n">
-        <v>39.97418510835511</v>
+        <v>46.35670666941837</v>
       </c>
       <c r="P43" t="n">
-        <v>34.20482111406972</v>
+        <v>39.66617092423087</v>
       </c>
       <c r="Q43" t="n">
-        <v>23.6816451654913</v>
+        <v>27.46280069025035</v>
       </c>
       <c r="R43" t="n">
-        <v>12.71625415139724</v>
+        <v>14.74660864335883</v>
       </c>
       <c r="S43" t="n">
-        <v>4.928641166241104</v>
+        <v>5.715577996222984</v>
       </c>
       <c r="T43" t="n">
-        <v>1.208378376699697</v>
+        <v>1.40131541900094</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0154261069365919</v>
+        <v>0.01788913300852267</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.6304807525173227</v>
+        <v>0.7311471447369385</v>
       </c>
       <c r="H44" t="n">
-        <v>6.456911006718033</v>
+        <v>7.487860696037173</v>
       </c>
       <c r="I44" t="n">
-        <v>24.30660921142411</v>
+        <v>28.18755029747085</v>
       </c>
       <c r="J44" t="n">
-        <v>53.51126576896716</v>
+        <v>62.05519997561679</v>
       </c>
       <c r="K44" t="n">
-        <v>80.19951602302545</v>
+        <v>93.00465861233141</v>
       </c>
       <c r="L44" t="n">
-        <v>99.49459135287749</v>
+        <v>115.3805030430745</v>
       </c>
       <c r="M44" t="n">
-        <v>110.7069034354574</v>
+        <v>128.3830410782901</v>
       </c>
       <c r="N44" t="n">
-        <v>112.4982568735473</v>
+        <v>130.4604129032739</v>
       </c>
       <c r="O44" t="n">
-        <v>106.2289138907031</v>
+        <v>123.190068482796</v>
       </c>
       <c r="P44" t="n">
-        <v>90.66392031293172</v>
+        <v>105.1398733471028</v>
       </c>
       <c r="Q44" t="n">
-        <v>68.08482836340508</v>
+        <v>78.95566622621112</v>
       </c>
       <c r="R44" t="n">
-        <v>39.60443657031631</v>
+        <v>45.92792183058175</v>
       </c>
       <c r="S44" t="n">
-        <v>14.36708014798851</v>
+        <v>16.661015560693</v>
       </c>
       <c r="T44" t="n">
-        <v>2.759929494144581</v>
+        <v>3.20059662608595</v>
       </c>
       <c r="U44" t="n">
-        <v>0.05043846020138581</v>
+        <v>0.05849177157895507</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3373369422549055</v>
+        <v>0.3911982105071274</v>
       </c>
       <c r="H45" t="n">
-        <v>3.257964679146062</v>
+        <v>3.778151138318836</v>
       </c>
       <c r="I45" t="n">
-        <v>11.6144517399167</v>
+        <v>13.4688857564954</v>
       </c>
       <c r="J45" t="n">
-        <v>31.87094330312685</v>
+        <v>36.95965198479838</v>
       </c>
       <c r="K45" t="n">
-        <v>54.47251843420551</v>
+        <v>63.16993208877592</v>
       </c>
       <c r="L45" t="n">
-        <v>73.24502336109254</v>
+        <v>84.93976934717256</v>
       </c>
       <c r="M45" t="n">
-        <v>85.47348751783285</v>
+        <v>99.1207044780559</v>
       </c>
       <c r="N45" t="n">
-        <v>87.73571639813001</v>
+        <v>101.7441345827287</v>
       </c>
       <c r="O45" t="n">
-        <v>80.26103994079763</v>
+        <v>93.07600581307078</v>
       </c>
       <c r="P45" t="n">
-        <v>64.4165604907635</v>
+        <v>74.70170039061102</v>
       </c>
       <c r="Q45" t="n">
-        <v>43.06076476924022</v>
+        <v>49.9361084149098</v>
       </c>
       <c r="R45" t="n">
-        <v>20.94448137965107</v>
+        <v>24.28860468394253</v>
       </c>
       <c r="S45" t="n">
-        <v>6.265885747585632</v>
+        <v>7.266335182007383</v>
       </c>
       <c r="T45" t="n">
-        <v>1.359704604966044</v>
+        <v>1.576803313403728</v>
       </c>
       <c r="U45" t="n">
-        <v>0.02219321988519116</v>
+        <v>0.02573672437546892</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2828119605041845</v>
+        <v>0.3279674384895819</v>
       </c>
       <c r="H46" t="n">
-        <v>2.514455430664479</v>
+        <v>2.915928680389194</v>
       </c>
       <c r="I46" t="n">
-        <v>8.50492695770766</v>
+        <v>9.862875332032155</v>
       </c>
       <c r="J46" t="n">
-        <v>19.99480560764584</v>
+        <v>23.18729790121344</v>
       </c>
       <c r="K46" t="n">
-        <v>32.8576077749407</v>
+        <v>38.10385330815323</v>
       </c>
       <c r="L46" t="n">
-        <v>42.04642547350394</v>
+        <v>48.75981353689657</v>
       </c>
       <c r="M46" t="n">
-        <v>44.33206031794229</v>
+        <v>51.41038674432599</v>
       </c>
       <c r="N46" t="n">
-        <v>43.27794301060855</v>
+        <v>50.18796265541032</v>
       </c>
       <c r="O46" t="n">
-        <v>39.97418510835511</v>
+        <v>46.35670666941837</v>
       </c>
       <c r="P46" t="n">
-        <v>34.20482111406972</v>
+        <v>39.66617092423087</v>
       </c>
       <c r="Q46" t="n">
-        <v>23.6816451654913</v>
+        <v>27.46280069025035</v>
       </c>
       <c r="R46" t="n">
-        <v>12.71625415139724</v>
+        <v>14.74660864335883</v>
       </c>
       <c r="S46" t="n">
-        <v>4.928641166241104</v>
+        <v>5.715577996222984</v>
       </c>
       <c r="T46" t="n">
-        <v>1.208378376699697</v>
+        <v>1.40131541900094</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0154261069365919</v>
+        <v>0.01788913300852267</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
